--- a/Assets/06.Table/GradeTestTable.xlsx
+++ b/Assets/06.Table/GradeTestTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB654F57-2AD5-4525-9CE2-CDB362FBBB31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB710F0D-90F6-4A59-A5B3-B96DE26EA146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GradeTestTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="79">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -294,6 +294,27 @@
   </si>
   <si>
     <t>0.000066,0.000066,0.000066</t>
+  </si>
+  <si>
+    <t>1000갈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.000068,0.000068,0.000068</t>
+  </si>
+  <si>
+    <t>0.000070,0.000070,0.000070</t>
+  </si>
+  <si>
+    <t>0.000072,0.000072,0.000072</t>
   </si>
 </sst>
 </file>
@@ -686,11 +707,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
+      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1283,6 +1304,57 @@
         <v>72</v>
       </c>
     </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2">
+        <v>1.0000000000000001E+91</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2">
+        <v>1E+92</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2">
+        <v>1E+93</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/GradeTestTable.xlsx
+++ b/Assets/06.Table/GradeTestTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB710F0D-90F6-4A59-A5B3-B96DE26EA146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88CA005-7F93-406B-BB9C-CCABF2A34FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="83">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -315,6 +315,20 @@
   </si>
   <si>
     <t>0.000072,0.000072,0.000072</t>
+  </si>
+  <si>
+    <t>100라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.000075,0.000075,0.000075</t>
+  </si>
+  <si>
+    <t>0.000078,0.000078,0.000078</t>
   </si>
 </sst>
 </file>
@@ -707,11 +721,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1355,6 +1369,40 @@
         <v>78</v>
       </c>
     </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2">
+        <v>1E+94</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2">
+        <v>1E+95</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/GradeTestTable.xlsx
+++ b/Assets/06.Table/GradeTestTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88CA005-7F93-406B-BB9C-CCABF2A34FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF91CE0-F000-4A57-BABC-94D52362575A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="87">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -329,6 +329,20 @@
   </si>
   <si>
     <t>0.000078,0.000078,0.000078</t>
+  </si>
+  <si>
+    <t>1가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.000081,0.000081,0.000081</t>
+  </si>
+  <si>
+    <t>0.000085,0.000085,0.000085</t>
   </si>
 </sst>
 </file>
@@ -721,11 +735,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1403,6 +1417,40 @@
         <v>82</v>
       </c>
     </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2">
+        <v>1E+96</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2">
+        <v>1.0000000000000001E+97</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/GradeTestTable.xlsx
+++ b/Assets/06.Table/GradeTestTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF91CE0-F000-4A57-BABC-94D52362575A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B5F1F0-EB87-4CAF-963F-01EBFFD428CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GradeTestTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="91">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -343,6 +343,21 @@
   </si>
   <si>
     <t>0.000085,0.000085,0.000085</t>
+  </si>
+  <si>
+    <t>100가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.000089,0.000089,0.000089</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.000094,0.000094,0.000094</t>
   </si>
 </sst>
 </file>
@@ -735,11 +750,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1451,6 +1466,40 @@
         <v>86</v>
       </c>
     </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2">
+        <v>1E+98</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="3">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/GradeTestTable.xlsx
+++ b/Assets/06.Table/GradeTestTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B5F1F0-EB87-4CAF-963F-01EBFFD428CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A981F6F8-87BD-4143-9D89-B08172A9CF5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GradeTestTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="100">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -251,113 +251,163 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>100긍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000긍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10긍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1갈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10갈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100갈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000갈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>41,38,40,44</t>
+  </si>
+  <si>
+    <t>41,38,40,44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>41,38,40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.000094,0.000094,0.000094,0.000010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.000089,0.000089,0.000089,0.000009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.000062,0.000062,0.000062,0.000002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.000064,0.000064,0.000064,0.0000025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.000068,0.000068,0.000068,0.0000035</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.000072,0.000072,0.000072,0.0000045</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.000085,0.000085,0.000085,0.000008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.000081,0.000081,0.000081,0.000007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.000078,0.000078,0.000078,0.000006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.000075,0.000075,0.000075,0.000005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.000070,0.000070,0.000070,0.000004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.000066,0.000066,0.000066,0.000003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>0.000054,0.000054,0.000054</t>
-  </si>
-  <si>
-    <t>100긍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000긍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10긍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1갈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0.000056,0.000056,0.000056</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0.000058,0.000058,0.000058</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0.000060,0.000060,0.000060</t>
-  </si>
-  <si>
-    <t>0.000062,0.000062,0.000062</t>
-  </si>
-  <si>
-    <t>10갈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100갈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.000064,0.000064,0.000064</t>
-  </si>
-  <si>
-    <t>0.000066,0.000066,0.000066</t>
-  </si>
-  <si>
-    <t>1000갈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.000068,0.000068,0.000068</t>
-  </si>
-  <si>
-    <t>0.000070,0.000070,0.000070</t>
-  </si>
-  <si>
-    <t>0.000072,0.000072,0.000072</t>
-  </si>
-  <si>
-    <t>100라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.000075,0.000075,0.000075</t>
-  </si>
-  <si>
-    <t>0.000078,0.000078,0.000078</t>
-  </si>
-  <si>
-    <t>1가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.000081,0.000081,0.000081</t>
-  </si>
-  <si>
-    <t>0.000085,0.000085,0.000085</t>
-  </si>
-  <si>
-    <t>100가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.000089,0.000089,0.000089</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.000094,0.000094,0.000094</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1언</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10언</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100언</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.000099,0.000099,0.000099,0.000011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.000104,0.000104,0.000104,0.000012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.000109,0.000109,0.000109,0.000013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -750,11 +800,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1239,10 +1289,10 @@
         <v>59</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1253,13 +1303,13 @@
         <v>1E+85</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1270,13 +1320,13 @@
         <v>1E+86</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1287,13 +1337,13 @@
         <v>9.9999999999999996E+86</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1304,13 +1354,13 @@
         <v>9.9999999999999996E+87</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -1321,13 +1371,13 @@
         <v>9.9999999999999999E+88</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -1338,13 +1388,13 @@
         <v>9.9999999999999997E+89</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -1355,13 +1405,13 @@
         <v>1.0000000000000001E+91</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -1372,13 +1422,13 @@
         <v>1E+92</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -1389,13 +1439,13 @@
         <v>1E+93</v>
       </c>
       <c r="C37" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="E37" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -1406,13 +1456,13 @@
         <v>1E+94</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -1423,13 +1473,13 @@
         <v>1E+95</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -1440,10 +1490,10 @@
         <v>1E+96</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>85</v>
@@ -1457,13 +1507,13 @@
         <v>1.0000000000000001E+97</v>
       </c>
       <c r="C41" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -1474,13 +1524,13 @@
         <v>1E+98</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -1491,13 +1541,64 @@
         <v>9.9999999999999997E+98</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>90</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2">
+        <v>1E+100</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2">
+        <v>9.9999999999999998E+100</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="3">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2">
+        <v>9.9999999999999998E+101</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/GradeTestTable.xlsx
+++ b/Assets/06.Table/GradeTestTable.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A981F6F8-87BD-4143-9D89-B08172A9CF5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13984EFC-89E7-44EC-B82F-6F896D62C9E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GradeTestTable" sheetId="1" r:id="rId1"/>
+    <sheet name="abilvalue" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="129">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -408,6 +409,94 @@
   <si>
     <t>0.000109,0.000109,0.000109,0.000013</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150언</t>
+  </si>
+  <si>
+    <t>200언</t>
+  </si>
+  <si>
+    <t>300언</t>
+  </si>
+  <si>
+    <t>500언</t>
+  </si>
+  <si>
+    <t>800언</t>
+  </si>
+  <si>
+    <t>1000언</t>
+  </si>
+  <si>
+    <t>2000언</t>
+  </si>
+  <si>
+    <t>5000언</t>
+  </si>
+  <si>
+    <t>1승</t>
+  </si>
+  <si>
+    <t>2승</t>
+  </si>
+  <si>
+    <t>5승</t>
+  </si>
+  <si>
+    <t>10승</t>
+  </si>
+  <si>
+    <t>20승</t>
+  </si>
+  <si>
+    <t>50승</t>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.000114,0.000114,0.000114,0.000014</t>
+  </si>
+  <si>
+    <t>0.000119,0.000119,0.000119,0.000015</t>
+  </si>
+  <si>
+    <t>0.000124,0.000124,0.000124,0.000016</t>
+  </si>
+  <si>
+    <t>0.000129,0.000129,0.000129,0.000017</t>
+  </si>
+  <si>
+    <t>0.000134,0.000134,0.000134,0.000018</t>
+  </si>
+  <si>
+    <t>0.000139,0.000139,0.000139,0.000019</t>
+  </si>
+  <si>
+    <t>0.000144,0.000144,0.000144,0.00002</t>
+  </si>
+  <si>
+    <t>0.000149,0.000149,0.000149,0.000021</t>
+  </si>
+  <si>
+    <t>0.000154,0.000154,0.000154,0.000022</t>
+  </si>
+  <si>
+    <t>0.000159,0.000159,0.000159,0.000023</t>
+  </si>
+  <si>
+    <t>0.000164,0.000164,0.000164,0.000024</t>
+  </si>
+  <si>
+    <t>0.000169,0.000169,0.000169,0.000025</t>
+  </si>
+  <si>
+    <t>0.000174,0.000174,0.000174,0.000026</t>
+  </si>
+  <si>
+    <t>0.000179,0.000179,0.000179,0.000027</t>
   </si>
 </sst>
 </file>
@@ -800,11 +889,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1601,9 +1690,577 @@
         <v>99</v>
       </c>
     </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="3">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>1.4999999999999999E+102</v>
+      </c>
+      <c r="C47" t="s">
+        <v>100</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="3">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>2E+102</v>
+      </c>
+      <c r="C48" t="s">
+        <v>101</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="3">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>2.9999999999999998E+102</v>
+      </c>
+      <c r="C49" t="s">
+        <v>102</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="3">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>5E+102</v>
+      </c>
+      <c r="C50" t="s">
+        <v>103</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="3">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>7.9999999999999998E+102</v>
+      </c>
+      <c r="C51" t="s">
+        <v>104</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="3">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>1E+103</v>
+      </c>
+      <c r="C52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="3">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>2E+103</v>
+      </c>
+      <c r="C53" t="s">
+        <v>106</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="3">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>5E+103</v>
+      </c>
+      <c r="C54" t="s">
+        <v>107</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="3">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>1E+104</v>
+      </c>
+      <c r="C55" t="s">
+        <v>108</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="3">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>2E+104</v>
+      </c>
+      <c r="C56" t="s">
+        <v>109</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="3">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>4.9999999999999997E+104</v>
+      </c>
+      <c r="C57" t="s">
+        <v>110</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="3">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>9.9999999999999994E+104</v>
+      </c>
+      <c r="C58" t="s">
+        <v>111</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="3">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>1.9999999999999999E+105</v>
+      </c>
+      <c r="C59" t="s">
+        <v>112</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="3">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>5.0000000000000005E+105</v>
+      </c>
+      <c r="C60" t="s">
+        <v>113</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BC1071-2B2D-491A-BEE8-0317001AD37D}">
+  <dimension ref="C5:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>45</v>
+      </c>
+      <c r="D6" t="str">
+        <f>E6&amp;","&amp;F6&amp;","&amp;G6&amp;","&amp;H6</f>
+        <v>0.000114,0.000114,0.000114,0.000014</v>
+      </c>
+      <c r="E6">
+        <v>1.1400000000000001E-4</v>
+      </c>
+      <c r="F6">
+        <v>1.1400000000000001E-4</v>
+      </c>
+      <c r="G6">
+        <v>1.1400000000000001E-4</v>
+      </c>
+      <c r="H6">
+        <v>1.4E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>46</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" ref="D7:D19" si="0">E7&amp;","&amp;F7&amp;","&amp;G7&amp;","&amp;H7</f>
+        <v>0.000119,0.000119,0.000119,0.000015</v>
+      </c>
+      <c r="E7">
+        <v>1.1900000000000001E-4</v>
+      </c>
+      <c r="F7">
+        <v>1.1900000000000001E-4</v>
+      </c>
+      <c r="G7">
+        <v>1.1900000000000001E-4</v>
+      </c>
+      <c r="H7">
+        <v>1.5E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>47</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>0.000124,0.000124,0.000124,0.000016</v>
+      </c>
+      <c r="E8">
+        <v>1.2400000000000001E-4</v>
+      </c>
+      <c r="F8">
+        <v>1.2400000000000001E-4</v>
+      </c>
+      <c r="G8">
+        <v>1.2400000000000001E-4</v>
+      </c>
+      <c r="H8">
+        <v>1.5999999999999999E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>48</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>0.000129,0.000129,0.000129,0.000017</v>
+      </c>
+      <c r="E9">
+        <v>1.2899999999999999E-4</v>
+      </c>
+      <c r="F9">
+        <v>1.2899999999999999E-4</v>
+      </c>
+      <c r="G9">
+        <v>1.2899999999999999E-4</v>
+      </c>
+      <c r="H9">
+        <v>1.7E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>49</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>0.000134,0.000134,0.000134,0.000018</v>
+      </c>
+      <c r="E10">
+        <v>1.34E-4</v>
+      </c>
+      <c r="F10">
+        <v>1.34E-4</v>
+      </c>
+      <c r="G10">
+        <v>1.34E-4</v>
+      </c>
+      <c r="H10">
+        <v>1.8E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>50</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>0.000139,0.000139,0.000139,0.000019</v>
+      </c>
+      <c r="E11">
+        <v>1.3899999999999999E-4</v>
+      </c>
+      <c r="F11">
+        <v>1.3899999999999999E-4</v>
+      </c>
+      <c r="G11">
+        <v>1.3899999999999999E-4</v>
+      </c>
+      <c r="H11">
+        <v>1.9000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>51</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>0.000144,0.000144,0.000144,0.00002</v>
+      </c>
+      <c r="E12">
+        <v>1.44E-4</v>
+      </c>
+      <c r="F12">
+        <v>1.44E-4</v>
+      </c>
+      <c r="G12">
+        <v>1.44E-4</v>
+      </c>
+      <c r="H12">
+        <v>2.0000000000000002E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>52</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>0.000149,0.000149,0.000149,0.000021</v>
+      </c>
+      <c r="E13">
+        <v>1.4899999999999999E-4</v>
+      </c>
+      <c r="F13">
+        <v>1.4899999999999999E-4</v>
+      </c>
+      <c r="G13">
+        <v>1.4899999999999999E-4</v>
+      </c>
+      <c r="H13">
+        <v>2.0999999999999999E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>53</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>0.000154,0.000154,0.000154,0.000022</v>
+      </c>
+      <c r="E14">
+        <v>1.54E-4</v>
+      </c>
+      <c r="F14">
+        <v>1.54E-4</v>
+      </c>
+      <c r="G14">
+        <v>1.54E-4</v>
+      </c>
+      <c r="H14">
+        <v>2.1999999999999999E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>54</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>0.000159,0.000159,0.000159,0.000023</v>
+      </c>
+      <c r="E15">
+        <v>1.5899999999999999E-4</v>
+      </c>
+      <c r="F15">
+        <v>1.5899999999999999E-4</v>
+      </c>
+      <c r="G15">
+        <v>1.5899999999999999E-4</v>
+      </c>
+      <c r="H15">
+        <v>2.3E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>55</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>0.000164,0.000164,0.000164,0.000024</v>
+      </c>
+      <c r="E16">
+        <v>1.64E-4</v>
+      </c>
+      <c r="F16">
+        <v>1.64E-4</v>
+      </c>
+      <c r="G16">
+        <v>1.64E-4</v>
+      </c>
+      <c r="H16">
+        <v>2.4000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>56</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>0.000169,0.000169,0.000169,0.000025</v>
+      </c>
+      <c r="E17">
+        <v>1.6899999999999999E-4</v>
+      </c>
+      <c r="F17">
+        <v>1.6899999999999999E-4</v>
+      </c>
+      <c r="G17">
+        <v>1.6899999999999999E-4</v>
+      </c>
+      <c r="H17">
+        <v>2.5000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>57</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>0.000174,0.000174,0.000174,0.000026</v>
+      </c>
+      <c r="E18">
+        <v>1.74E-4</v>
+      </c>
+      <c r="F18">
+        <v>1.74E-4</v>
+      </c>
+      <c r="G18">
+        <v>1.74E-4</v>
+      </c>
+      <c r="H18">
+        <v>2.5999999999999998E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>58</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>0.000179,0.000179,0.000179,0.000027</v>
+      </c>
+      <c r="E19">
+        <v>1.7899999999999999E-4</v>
+      </c>
+      <c r="F19">
+        <v>1.7899999999999999E-4</v>
+      </c>
+      <c r="G19">
+        <v>1.7899999999999999E-4</v>
+      </c>
+      <c r="H19">
+        <v>2.6999999999999999E-5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Assets/06.Table/GradeTestTable.xlsx
+++ b/Assets/06.Table/GradeTestTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13984EFC-89E7-44EC-B82F-6F896D62C9E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1F42F1-7E10-47B5-819D-E704289F1F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="142">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -497,6 +497,58 @@
   </si>
   <si>
     <t>0.000179,0.000179,0.000179,0.000027</t>
+  </si>
+  <si>
+    <t>41,38,40,44,52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100승</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000승</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.000184,0.000184,0.000184,0.000028,0.025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.000189,0.000189,0.000189,0.000029,0.026</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.000194,0.000194,0.000194,0.00003,0.027</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.000199,0.000199,0.000199,0.000031,0.028</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.000204,0.000204,0.000204,0.000032,0.029</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.000209,0.000209,0.000209,0.000033,0.030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -889,18 +941,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K51" sqref="K51"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="23.875" customWidth="1"/>
     <col min="3" max="3" width="16.125" customWidth="1"/>
-    <col min="4" max="4" width="10.75" customWidth="1"/>
+    <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1926,6 +1978,108 @@
       </c>
       <c r="E60" s="1" t="s">
         <v>128</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="3">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>1.0000000000000001E+106</v>
+      </c>
+      <c r="C61" t="s">
+        <v>130</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="3">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>9.9999999999999997E+106</v>
+      </c>
+      <c r="C62" t="s">
+        <v>131</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="3">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>1E+108</v>
+      </c>
+      <c r="C63" t="s">
+        <v>132</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="3">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>9.9999999999999998E+108</v>
+      </c>
+      <c r="C64" t="s">
+        <v>133</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="3">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>1E+110</v>
+      </c>
+      <c r="C65" t="s">
+        <v>134</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="3">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>9.9999999999999996E+110</v>
+      </c>
+      <c r="C66" t="s">
+        <v>135</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1937,10 +2091,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BC1071-2B2D-491A-BEE8-0317001AD37D}">
-  <dimension ref="C5:H19"/>
+  <dimension ref="C5:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="D20" sqref="D20:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1948,7 +2102,7 @@
     <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>114</v>
       </c>
@@ -1964,8 +2118,11 @@
       <c r="H5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="I5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C6">
         <v>45</v>
       </c>
@@ -1986,7 +2143,7 @@
         <v>1.4E-5</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C7">
         <v>46</v>
       </c>
@@ -2007,7 +2164,7 @@
         <v>1.5E-5</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C8">
         <v>47</v>
       </c>
@@ -2028,7 +2185,7 @@
         <v>1.5999999999999999E-5</v>
       </c>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C9">
         <v>48</v>
       </c>
@@ -2049,7 +2206,7 @@
         <v>1.7E-5</v>
       </c>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C10">
         <v>49</v>
       </c>
@@ -2070,7 +2227,7 @@
         <v>1.8E-5</v>
       </c>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C11">
         <v>50</v>
       </c>
@@ -2091,7 +2248,7 @@
         <v>1.9000000000000001E-5</v>
       </c>
     </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C12">
         <v>51</v>
       </c>
@@ -2112,7 +2269,7 @@
         <v>2.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C13">
         <v>52</v>
       </c>
@@ -2133,7 +2290,7 @@
         <v>2.0999999999999999E-5</v>
       </c>
     </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C14">
         <v>53</v>
       </c>
@@ -2154,7 +2311,7 @@
         <v>2.1999999999999999E-5</v>
       </c>
     </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C15">
         <v>54</v>
       </c>
@@ -2175,7 +2332,7 @@
         <v>2.3E-5</v>
       </c>
     </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C16">
         <v>55</v>
       </c>
@@ -2196,7 +2353,7 @@
         <v>2.4000000000000001E-5</v>
       </c>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C17">
         <v>56</v>
       </c>
@@ -2217,7 +2374,7 @@
         <v>2.5000000000000001E-5</v>
       </c>
     </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C18">
         <v>57</v>
       </c>
@@ -2238,7 +2395,7 @@
         <v>2.5999999999999998E-5</v>
       </c>
     </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C19">
         <v>58</v>
       </c>
@@ -2257,6 +2414,150 @@
       </c>
       <c r="H19">
         <v>2.6999999999999999E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>59</v>
+      </c>
+      <c r="D20" t="str">
+        <f>E20&amp;","&amp;F20&amp;","&amp;G20&amp;","&amp;H20&amp;","&amp;I20</f>
+        <v>0.000184,0.000184,0.000184,0.000028,0.01</v>
+      </c>
+      <c r="E20">
+        <v>1.84E-4</v>
+      </c>
+      <c r="F20">
+        <v>1.84E-4</v>
+      </c>
+      <c r="G20">
+        <v>1.84E-4</v>
+      </c>
+      <c r="H20">
+        <v>2.8E-5</v>
+      </c>
+      <c r="I20">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>60</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" ref="D21:D25" si="1">E21&amp;","&amp;F21&amp;","&amp;G21&amp;","&amp;H21&amp;","&amp;I21</f>
+        <v>0.000189,0.000189,0.000189,0.000029,0.012</v>
+      </c>
+      <c r="E21">
+        <v>1.8900000000000001E-4</v>
+      </c>
+      <c r="F21">
+        <v>1.8900000000000001E-4</v>
+      </c>
+      <c r="G21">
+        <v>1.8900000000000001E-4</v>
+      </c>
+      <c r="H21">
+        <v>2.9E-5</v>
+      </c>
+      <c r="I21">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>61</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="1"/>
+        <v>0.000194,0.000194,0.000194,0.00003,0.014</v>
+      </c>
+      <c r="E22">
+        <v>1.94E-4</v>
+      </c>
+      <c r="F22">
+        <v>1.94E-4</v>
+      </c>
+      <c r="G22">
+        <v>1.94E-4</v>
+      </c>
+      <c r="H22">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="I22">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>62</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="1"/>
+        <v>0.000199,0.000199,0.000199,0.000031,0.016</v>
+      </c>
+      <c r="E23">
+        <v>1.9900000000000001E-4</v>
+      </c>
+      <c r="F23">
+        <v>1.9900000000000001E-4</v>
+      </c>
+      <c r="G23">
+        <v>1.9900000000000001E-4</v>
+      </c>
+      <c r="H23">
+        <v>3.1000000000000001E-5</v>
+      </c>
+      <c r="I23">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>63</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="1"/>
+        <v>0.000204,0.000204,0.000204,0.000032,0.018</v>
+      </c>
+      <c r="E24">
+        <v>2.04E-4</v>
+      </c>
+      <c r="F24">
+        <v>2.04E-4</v>
+      </c>
+      <c r="G24">
+        <v>2.04E-4</v>
+      </c>
+      <c r="H24">
+        <v>3.1999999999999999E-5</v>
+      </c>
+      <c r="I24">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <v>64</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="1"/>
+        <v>0.000209,0.000209,0.000209,0.000033,0.02</v>
+      </c>
+      <c r="E25">
+        <v>2.0900000000000001E-4</v>
+      </c>
+      <c r="F25">
+        <v>2.0900000000000001E-4</v>
+      </c>
+      <c r="G25">
+        <v>2.0900000000000001E-4</v>
+      </c>
+      <c r="H25">
+        <v>3.3000000000000003E-5</v>
+      </c>
+      <c r="I25">
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/GradeTestTable.xlsx
+++ b/Assets/06.Table/GradeTestTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1F42F1-7E10-47B5-819D-E704289F1F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E58003-04B3-4BE2-AB60-C07C3E93D7B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="141">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -527,27 +527,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.000184,0.000184,0.000184,0.000028,0.025</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.000189,0.000189,0.000189,0.000029,0.026</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.000194,0.000194,0.000194,0.00003,0.027</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.000199,0.000199,0.000199,0.000031,0.028</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.000204,0.000204,0.000204,0.000032,0.029</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.000209,0.000209,0.000209,0.000033,0.030</t>
+    <t>41,38,40,44,52</t>
+  </si>
+  <si>
+    <t>1살</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10살</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100살</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000살</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -941,11 +936,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E52" sqref="E52"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1993,8 +1988,9 @@
       <c r="D61" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E61" s="1" t="s">
-        <v>136</v>
+      <c r="E61" s="1" t="str">
+        <f>VLOOKUP(A61,abilvalue!C:I,2,FALSE)</f>
+        <v>0.000184,0.000184,0.000184,0.000028,0.025</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -2010,8 +2006,9 @@
       <c r="D62" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E62" s="1" t="s">
-        <v>137</v>
+      <c r="E62" s="1" t="str">
+        <f>VLOOKUP(A62,abilvalue!C:I,2,FALSE)</f>
+        <v>0.000189,0.000189,0.000189,0.000029,0.026</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -2019,6 +2016,7 @@
         <v>61</v>
       </c>
       <c r="B63">
+        <f>B62*10</f>
         <v>1E+108</v>
       </c>
       <c r="C63" t="s">
@@ -2027,8 +2025,9 @@
       <c r="D63" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E63" s="1" t="s">
-        <v>138</v>
+      <c r="E63" s="1" t="str">
+        <f>VLOOKUP(A63,abilvalue!C:I,2,FALSE)</f>
+        <v>0.000194,0.000194,0.000194,0.00003,0.027</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -2036,6 +2035,7 @@
         <v>62</v>
       </c>
       <c r="B64">
+        <f t="shared" ref="B64:B66" si="0">B63*10</f>
         <v>9.9999999999999998E+108</v>
       </c>
       <c r="C64" t="s">
@@ -2044,8 +2044,9 @@
       <c r="D64" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>139</v>
+      <c r="E64" s="1" t="str">
+        <f>VLOOKUP(A64,abilvalue!C:I,2,FALSE)</f>
+        <v>0.000199,0.000199,0.000199,0.000031,0.028</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -2053,6 +2054,7 @@
         <v>63</v>
       </c>
       <c r="B65">
+        <f t="shared" si="0"/>
         <v>1E+110</v>
       </c>
       <c r="C65" t="s">
@@ -2061,8 +2063,9 @@
       <c r="D65" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E65" s="1" t="s">
-        <v>140</v>
+      <c r="E65" s="1" t="str">
+        <f>VLOOKUP(A65,abilvalue!C:I,2,FALSE)</f>
+        <v>0.000204,0.000204,0.000204,0.000032,0.029</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -2070,7 +2073,8 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>9.9999999999999996E+110</v>
+        <f t="shared" si="0"/>
+        <v>1.0000000000000001E+111</v>
       </c>
       <c r="C66" t="s">
         <v>135</v>
@@ -2078,8 +2082,85 @@
       <c r="D66" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E66" s="1" t="s">
-        <v>141</v>
+      <c r="E66" s="1" t="str">
+        <f>VLOOKUP(A66,abilvalue!C:I,2,FALSE)</f>
+        <v>0.000209,0.000209,0.000209,0.000033,0.03</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="3">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <f t="shared" ref="B67:B70" si="1">B66*10</f>
+        <v>1.0000000000000001E+112</v>
+      </c>
+      <c r="C67" t="s">
+        <v>137</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E67" s="1" t="str">
+        <f>VLOOKUP(A67,abilvalue!C:I,2,FALSE)</f>
+        <v>0.000214,0.000214,0.000214,0.000034,0.031</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="3">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000002E+113</v>
+      </c>
+      <c r="C68" t="s">
+        <v>138</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E68" s="1" t="str">
+        <f>VLOOKUP(A68,abilvalue!C:I,2,FALSE)</f>
+        <v>0.000219,0.000219,0.000219,0.000035,0.032</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="3">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000002E+114</v>
+      </c>
+      <c r="C69" t="s">
+        <v>139</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E69" s="1" t="str">
+        <f>VLOOKUP(A69,abilvalue!C:I,2,FALSE)</f>
+        <v>0.000224,0.000224,0.000224,0.000036,0.033</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="3">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000002E+115</v>
+      </c>
+      <c r="C70" t="s">
+        <v>140</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E70" s="1" t="str">
+        <f>VLOOKUP(A70,abilvalue!C:I,2,FALSE)</f>
+        <v>0.000229,0.000229,0.000229,0.000037,0.034</v>
       </c>
     </row>
   </sheetData>
@@ -2091,14 +2172,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BC1071-2B2D-491A-BEE8-0317001AD37D}">
-  <dimension ref="C5:I25"/>
+  <dimension ref="C5:I47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20:D25"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="4" max="4" width="9.25" customWidth="1"/>
     <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2152,15 +2234,19 @@
         <v>0.000119,0.000119,0.000119,0.000015</v>
       </c>
       <c r="E7">
+        <f>E6+0.000005</f>
         <v>1.1900000000000001E-4</v>
       </c>
       <c r="F7">
+        <f t="shared" ref="F7:G7" si="1">F6+0.000005</f>
         <v>1.1900000000000001E-4</v>
       </c>
       <c r="G7">
+        <f t="shared" si="1"/>
         <v>1.1900000000000001E-4</v>
       </c>
       <c r="H7">
+        <f>H6+0.000001</f>
         <v>1.5E-5</v>
       </c>
     </row>
@@ -2173,15 +2259,19 @@
         <v>0.000124,0.000124,0.000124,0.000016</v>
       </c>
       <c r="E8">
+        <f t="shared" ref="E8:E25" si="2">E7+0.000005</f>
         <v>1.2400000000000001E-4</v>
       </c>
       <c r="F8">
+        <f t="shared" ref="F8:F25" si="3">F7+0.000005</f>
         <v>1.2400000000000001E-4</v>
       </c>
       <c r="G8">
+        <f t="shared" ref="G8:G25" si="4">G7+0.000005</f>
         <v>1.2400000000000001E-4</v>
       </c>
       <c r="H8">
+        <f t="shared" ref="H8:H25" si="5">H7+0.000001</f>
         <v>1.5999999999999999E-5</v>
       </c>
     </row>
@@ -2194,15 +2284,19 @@
         <v>0.000129,0.000129,0.000129,0.000017</v>
       </c>
       <c r="E9">
-        <v>1.2899999999999999E-4</v>
+        <f t="shared" si="2"/>
+        <v>1.2900000000000002E-4</v>
       </c>
       <c r="F9">
-        <v>1.2899999999999999E-4</v>
+        <f t="shared" si="3"/>
+        <v>1.2900000000000002E-4</v>
       </c>
       <c r="G9">
-        <v>1.2899999999999999E-4</v>
+        <f t="shared" si="4"/>
+        <v>1.2900000000000002E-4</v>
       </c>
       <c r="H9">
+        <f t="shared" si="5"/>
         <v>1.7E-5</v>
       </c>
     </row>
@@ -2215,15 +2309,19 @@
         <v>0.000134,0.000134,0.000134,0.000018</v>
       </c>
       <c r="E10">
-        <v>1.34E-4</v>
+        <f t="shared" si="2"/>
+        <v>1.3400000000000003E-4</v>
       </c>
       <c r="F10">
-        <v>1.34E-4</v>
+        <f t="shared" si="3"/>
+        <v>1.3400000000000003E-4</v>
       </c>
       <c r="G10">
-        <v>1.34E-4</v>
+        <f t="shared" si="4"/>
+        <v>1.3400000000000003E-4</v>
       </c>
       <c r="H10">
+        <f t="shared" si="5"/>
         <v>1.8E-5</v>
       </c>
     </row>
@@ -2236,15 +2334,19 @@
         <v>0.000139,0.000139,0.000139,0.000019</v>
       </c>
       <c r="E11">
-        <v>1.3899999999999999E-4</v>
+        <f t="shared" si="2"/>
+        <v>1.3900000000000004E-4</v>
       </c>
       <c r="F11">
-        <v>1.3899999999999999E-4</v>
+        <f t="shared" si="3"/>
+        <v>1.3900000000000004E-4</v>
       </c>
       <c r="G11">
-        <v>1.3899999999999999E-4</v>
+        <f t="shared" si="4"/>
+        <v>1.3900000000000004E-4</v>
       </c>
       <c r="H11">
+        <f t="shared" si="5"/>
         <v>1.9000000000000001E-5</v>
       </c>
     </row>
@@ -2257,15 +2359,19 @@
         <v>0.000144,0.000144,0.000144,0.00002</v>
       </c>
       <c r="E12">
-        <v>1.44E-4</v>
+        <f t="shared" si="2"/>
+        <v>1.4400000000000006E-4</v>
       </c>
       <c r="F12">
-        <v>1.44E-4</v>
+        <f t="shared" si="3"/>
+        <v>1.4400000000000006E-4</v>
       </c>
       <c r="G12">
-        <v>1.44E-4</v>
+        <f t="shared" si="4"/>
+        <v>1.4400000000000006E-4</v>
       </c>
       <c r="H12">
+        <f t="shared" si="5"/>
         <v>2.0000000000000002E-5</v>
       </c>
     </row>
@@ -2278,16 +2384,20 @@
         <v>0.000149,0.000149,0.000149,0.000021</v>
       </c>
       <c r="E13">
-        <v>1.4899999999999999E-4</v>
+        <f t="shared" si="2"/>
+        <v>1.4900000000000007E-4</v>
       </c>
       <c r="F13">
-        <v>1.4899999999999999E-4</v>
+        <f t="shared" si="3"/>
+        <v>1.4900000000000007E-4</v>
       </c>
       <c r="G13">
-        <v>1.4899999999999999E-4</v>
+        <f t="shared" si="4"/>
+        <v>1.4900000000000007E-4</v>
       </c>
       <c r="H13">
-        <v>2.0999999999999999E-5</v>
+        <f t="shared" si="5"/>
+        <v>2.1000000000000002E-5</v>
       </c>
     </row>
     <row r="14" spans="3:9" x14ac:dyDescent="0.3">
@@ -2299,16 +2409,20 @@
         <v>0.000154,0.000154,0.000154,0.000022</v>
       </c>
       <c r="E14">
-        <v>1.54E-4</v>
+        <f t="shared" si="2"/>
+        <v>1.5400000000000008E-4</v>
       </c>
       <c r="F14">
-        <v>1.54E-4</v>
+        <f t="shared" si="3"/>
+        <v>1.5400000000000008E-4</v>
       </c>
       <c r="G14">
-        <v>1.54E-4</v>
+        <f t="shared" si="4"/>
+        <v>1.5400000000000008E-4</v>
       </c>
       <c r="H14">
-        <v>2.1999999999999999E-5</v>
+        <f t="shared" si="5"/>
+        <v>2.2000000000000003E-5</v>
       </c>
     </row>
     <row r="15" spans="3:9" x14ac:dyDescent="0.3">
@@ -2320,16 +2434,20 @@
         <v>0.000159,0.000159,0.000159,0.000023</v>
       </c>
       <c r="E15">
-        <v>1.5899999999999999E-4</v>
+        <f t="shared" si="2"/>
+        <v>1.590000000000001E-4</v>
       </c>
       <c r="F15">
-        <v>1.5899999999999999E-4</v>
+        <f t="shared" si="3"/>
+        <v>1.590000000000001E-4</v>
       </c>
       <c r="G15">
-        <v>1.5899999999999999E-4</v>
+        <f t="shared" si="4"/>
+        <v>1.590000000000001E-4</v>
       </c>
       <c r="H15">
-        <v>2.3E-5</v>
+        <f t="shared" si="5"/>
+        <v>2.3000000000000003E-5</v>
       </c>
     </row>
     <row r="16" spans="3:9" x14ac:dyDescent="0.3">
@@ -2341,16 +2459,20 @@
         <v>0.000164,0.000164,0.000164,0.000024</v>
       </c>
       <c r="E16">
-        <v>1.64E-4</v>
+        <f t="shared" si="2"/>
+        <v>1.6400000000000011E-4</v>
       </c>
       <c r="F16">
-        <v>1.64E-4</v>
+        <f t="shared" si="3"/>
+        <v>1.6400000000000011E-4</v>
       </c>
       <c r="G16">
-        <v>1.64E-4</v>
+        <f t="shared" si="4"/>
+        <v>1.6400000000000011E-4</v>
       </c>
       <c r="H16">
-        <v>2.4000000000000001E-5</v>
+        <f t="shared" si="5"/>
+        <v>2.4000000000000004E-5</v>
       </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.3">
@@ -2362,16 +2484,20 @@
         <v>0.000169,0.000169,0.000169,0.000025</v>
       </c>
       <c r="E17">
-        <v>1.6899999999999999E-4</v>
+        <f t="shared" si="2"/>
+        <v>1.6900000000000012E-4</v>
       </c>
       <c r="F17">
-        <v>1.6899999999999999E-4</v>
+        <f t="shared" si="3"/>
+        <v>1.6900000000000012E-4</v>
       </c>
       <c r="G17">
-        <v>1.6899999999999999E-4</v>
+        <f t="shared" si="4"/>
+        <v>1.6900000000000012E-4</v>
       </c>
       <c r="H17">
-        <v>2.5000000000000001E-5</v>
+        <f t="shared" si="5"/>
+        <v>2.5000000000000005E-5</v>
       </c>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.3">
@@ -2383,16 +2509,20 @@
         <v>0.000174,0.000174,0.000174,0.000026</v>
       </c>
       <c r="E18">
-        <v>1.74E-4</v>
+        <f t="shared" si="2"/>
+        <v>1.7400000000000014E-4</v>
       </c>
       <c r="F18">
-        <v>1.74E-4</v>
+        <f t="shared" si="3"/>
+        <v>1.7400000000000014E-4</v>
       </c>
       <c r="G18">
-        <v>1.74E-4</v>
+        <f t="shared" si="4"/>
+        <v>1.7400000000000014E-4</v>
       </c>
       <c r="H18">
-        <v>2.5999999999999998E-5</v>
+        <f t="shared" si="5"/>
+        <v>2.6000000000000005E-5</v>
       </c>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.3">
@@ -2404,16 +2534,20 @@
         <v>0.000179,0.000179,0.000179,0.000027</v>
       </c>
       <c r="E19">
-        <v>1.7899999999999999E-4</v>
+        <f t="shared" si="2"/>
+        <v>1.7900000000000015E-4</v>
       </c>
       <c r="F19">
-        <v>1.7899999999999999E-4</v>
+        <f t="shared" si="3"/>
+        <v>1.7900000000000015E-4</v>
       </c>
       <c r="G19">
-        <v>1.7899999999999999E-4</v>
+        <f t="shared" si="4"/>
+        <v>1.7900000000000015E-4</v>
       </c>
       <c r="H19">
-        <v>2.6999999999999999E-5</v>
+        <f t="shared" si="5"/>
+        <v>2.7000000000000006E-5</v>
       </c>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.3">
@@ -2422,22 +2556,26 @@
       </c>
       <c r="D20" t="str">
         <f>E20&amp;","&amp;F20&amp;","&amp;G20&amp;","&amp;H20&amp;","&amp;I20</f>
-        <v>0.000184,0.000184,0.000184,0.000028,0.01</v>
+        <v>0.000184,0.000184,0.000184,0.000028,0.025</v>
       </c>
       <c r="E20">
-        <v>1.84E-4</v>
+        <f t="shared" si="2"/>
+        <v>1.8400000000000016E-4</v>
       </c>
       <c r="F20">
-        <v>1.84E-4</v>
+        <f t="shared" si="3"/>
+        <v>1.8400000000000016E-4</v>
       </c>
       <c r="G20">
-        <v>1.84E-4</v>
+        <f t="shared" si="4"/>
+        <v>1.8400000000000016E-4</v>
       </c>
       <c r="H20">
-        <v>2.8E-5</v>
+        <f t="shared" si="5"/>
+        <v>2.8000000000000006E-5</v>
       </c>
       <c r="I20">
-        <v>0.01</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.3">
@@ -2445,23 +2583,28 @@
         <v>60</v>
       </c>
       <c r="D21" t="str">
-        <f t="shared" ref="D21:D25" si="1">E21&amp;","&amp;F21&amp;","&amp;G21&amp;","&amp;H21&amp;","&amp;I21</f>
-        <v>0.000189,0.000189,0.000189,0.000029,0.012</v>
+        <f t="shared" ref="D21:D25" si="6">E21&amp;","&amp;F21&amp;","&amp;G21&amp;","&amp;H21&amp;","&amp;I21</f>
+        <v>0.000189,0.000189,0.000189,0.000029,0.026</v>
       </c>
       <c r="E21">
-        <v>1.8900000000000001E-4</v>
+        <f t="shared" si="2"/>
+        <v>1.8900000000000018E-4</v>
       </c>
       <c r="F21">
-        <v>1.8900000000000001E-4</v>
+        <f t="shared" si="3"/>
+        <v>1.8900000000000018E-4</v>
       </c>
       <c r="G21">
-        <v>1.8900000000000001E-4</v>
+        <f t="shared" si="4"/>
+        <v>1.8900000000000018E-4</v>
       </c>
       <c r="H21">
-        <v>2.9E-5</v>
+        <f t="shared" si="5"/>
+        <v>2.9000000000000007E-5</v>
       </c>
       <c r="I21">
-        <v>1.2E-2</v>
+        <f>I20+0.001</f>
+        <v>2.6000000000000002E-2</v>
       </c>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.3">
@@ -2469,23 +2612,28 @@
         <v>61</v>
       </c>
       <c r="D22" t="str">
-        <f t="shared" si="1"/>
-        <v>0.000194,0.000194,0.000194,0.00003,0.014</v>
+        <f t="shared" si="6"/>
+        <v>0.000194,0.000194,0.000194,0.00003,0.027</v>
       </c>
       <c r="E22">
-        <v>1.94E-4</v>
+        <f t="shared" si="2"/>
+        <v>1.9400000000000019E-4</v>
       </c>
       <c r="F22">
-        <v>1.94E-4</v>
+        <f t="shared" si="3"/>
+        <v>1.9400000000000019E-4</v>
       </c>
       <c r="G22">
-        <v>1.94E-4</v>
+        <f t="shared" si="4"/>
+        <v>1.9400000000000019E-4</v>
       </c>
       <c r="H22">
-        <v>3.0000000000000001E-5</v>
+        <f t="shared" si="5"/>
+        <v>3.0000000000000008E-5</v>
       </c>
       <c r="I22">
-        <v>1.4E-2</v>
+        <f t="shared" ref="I22:I47" si="7">I21+0.001</f>
+        <v>2.7000000000000003E-2</v>
       </c>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.3">
@@ -2493,23 +2641,28 @@
         <v>62</v>
       </c>
       <c r="D23" t="str">
-        <f t="shared" si="1"/>
-        <v>0.000199,0.000199,0.000199,0.000031,0.016</v>
+        <f t="shared" si="6"/>
+        <v>0.000199,0.000199,0.000199,0.000031,0.028</v>
       </c>
       <c r="E23">
-        <v>1.9900000000000001E-4</v>
+        <f t="shared" si="2"/>
+        <v>1.990000000000002E-4</v>
       </c>
       <c r="F23">
-        <v>1.9900000000000001E-4</v>
+        <f t="shared" si="3"/>
+        <v>1.990000000000002E-4</v>
       </c>
       <c r="G23">
-        <v>1.9900000000000001E-4</v>
+        <f t="shared" si="4"/>
+        <v>1.990000000000002E-4</v>
       </c>
       <c r="H23">
-        <v>3.1000000000000001E-5</v>
+        <f t="shared" si="5"/>
+        <v>3.1000000000000008E-5</v>
       </c>
       <c r="I23">
-        <v>1.6E-2</v>
+        <f t="shared" si="7"/>
+        <v>2.8000000000000004E-2</v>
       </c>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.3">
@@ -2517,23 +2670,28 @@
         <v>63</v>
       </c>
       <c r="D24" t="str">
-        <f t="shared" si="1"/>
-        <v>0.000204,0.000204,0.000204,0.000032,0.018</v>
+        <f t="shared" si="6"/>
+        <v>0.000204,0.000204,0.000204,0.000032,0.029</v>
       </c>
       <c r="E24">
-        <v>2.04E-4</v>
+        <f t="shared" si="2"/>
+        <v>2.0400000000000022E-4</v>
       </c>
       <c r="F24">
-        <v>2.04E-4</v>
+        <f t="shared" si="3"/>
+        <v>2.0400000000000022E-4</v>
       </c>
       <c r="G24">
-        <v>2.04E-4</v>
+        <f t="shared" si="4"/>
+        <v>2.0400000000000022E-4</v>
       </c>
       <c r="H24">
-        <v>3.1999999999999999E-5</v>
+        <f t="shared" si="5"/>
+        <v>3.2000000000000005E-5</v>
       </c>
       <c r="I24">
-        <v>1.7999999999999999E-2</v>
+        <f t="shared" si="7"/>
+        <v>2.9000000000000005E-2</v>
       </c>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.3">
@@ -2541,23 +2699,666 @@
         <v>64</v>
       </c>
       <c r="D25" t="str">
-        <f t="shared" si="1"/>
-        <v>0.000209,0.000209,0.000209,0.000033,0.02</v>
+        <f t="shared" si="6"/>
+        <v>0.000209,0.000209,0.000209,0.000033,0.03</v>
       </c>
       <c r="E25">
-        <v>2.0900000000000001E-4</v>
+        <f t="shared" si="2"/>
+        <v>2.0900000000000023E-4</v>
       </c>
       <c r="F25">
-        <v>2.0900000000000001E-4</v>
+        <f t="shared" si="3"/>
+        <v>2.0900000000000023E-4</v>
       </c>
       <c r="G25">
-        <v>2.0900000000000001E-4</v>
+        <f t="shared" si="4"/>
+        <v>2.0900000000000023E-4</v>
       </c>
       <c r="H25">
+        <f t="shared" si="5"/>
         <v>3.3000000000000003E-5</v>
       </c>
       <c r="I25">
-        <v>0.02</v>
+        <f t="shared" si="7"/>
+        <v>3.0000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>65</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" ref="D26:D47" si="8">E26&amp;","&amp;F26&amp;","&amp;G26&amp;","&amp;H26&amp;","&amp;I26</f>
+        <v>0.000214,0.000214,0.000214,0.000034,0.031</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ref="E26:E47" si="9">E25+0.000005</f>
+        <v>2.1400000000000024E-4</v>
+      </c>
+      <c r="F26">
+        <f t="shared" ref="F26:F47" si="10">F25+0.000005</f>
+        <v>2.1400000000000024E-4</v>
+      </c>
+      <c r="G26">
+        <f t="shared" ref="G26:G47" si="11">G25+0.000005</f>
+        <v>2.1400000000000024E-4</v>
+      </c>
+      <c r="H26">
+        <f t="shared" ref="H26:H47" si="12">H25+0.000001</f>
+        <v>3.4E-5</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="7"/>
+        <v>3.1000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>66</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="8"/>
+        <v>0.000219,0.000219,0.000219,0.000035,0.032</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="9"/>
+        <v>2.1900000000000025E-4</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="10"/>
+        <v>2.1900000000000025E-4</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="11"/>
+        <v>2.1900000000000025E-4</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="12"/>
+        <v>3.4999999999999997E-5</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="7"/>
+        <v>3.2000000000000008E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>67</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="8"/>
+        <v>0.000224,0.000224,0.000224,0.000036,0.033</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="9"/>
+        <v>2.2400000000000027E-4</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="10"/>
+        <v>2.2400000000000027E-4</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="11"/>
+        <v>2.2400000000000027E-4</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="12"/>
+        <v>3.5999999999999994E-5</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="7"/>
+        <v>3.3000000000000008E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>68</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="8"/>
+        <v>0.000229,0.000229,0.000229,0.000037,0.034</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="9"/>
+        <v>2.2900000000000028E-4</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="10"/>
+        <v>2.2900000000000028E-4</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="11"/>
+        <v>2.2900000000000028E-4</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="12"/>
+        <v>3.6999999999999991E-5</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="7"/>
+        <v>3.4000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <v>69</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="8"/>
+        <v>0.000234,0.000234,0.000234,0.000038,0.035</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="9"/>
+        <v>2.3400000000000029E-4</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="10"/>
+        <v>2.3400000000000029E-4</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="11"/>
+        <v>2.3400000000000029E-4</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="12"/>
+        <v>3.7999999999999989E-5</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="7"/>
+        <v>3.500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C31">
+        <v>70</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="8"/>
+        <v>0.000239,0.000239,0.000239,0.000039,0.036</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="9"/>
+        <v>2.3900000000000031E-4</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="10"/>
+        <v>2.3900000000000031E-4</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="11"/>
+        <v>2.3900000000000031E-4</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="12"/>
+        <v>3.8999999999999986E-5</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="7"/>
+        <v>3.6000000000000011E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <v>71</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="8"/>
+        <v>0.000244,0.000244,0.000244,0.00004,0.037</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="9"/>
+        <v>2.4400000000000032E-4</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="10"/>
+        <v>2.4400000000000032E-4</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="11"/>
+        <v>2.4400000000000032E-4</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="12"/>
+        <v>3.9999999999999983E-5</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="7"/>
+        <v>3.7000000000000012E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <v>72</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="8"/>
+        <v>0.000249,0.000249,0.000249,0.000041,0.038</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="9"/>
+        <v>2.4900000000000031E-4</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="10"/>
+        <v>2.4900000000000031E-4</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="11"/>
+        <v>2.4900000000000031E-4</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="12"/>
+        <v>4.099999999999998E-5</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="7"/>
+        <v>3.8000000000000013E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C34">
+        <v>73</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="8"/>
+        <v>0.000254,0.000254,0.000254,0.000042,0.039</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="9"/>
+        <v>2.5400000000000032E-4</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="10"/>
+        <v>2.5400000000000032E-4</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="11"/>
+        <v>2.5400000000000032E-4</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="12"/>
+        <v>4.1999999999999977E-5</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="7"/>
+        <v>3.9000000000000014E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C35">
+        <v>74</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="8"/>
+        <v>0.000259,0.000259,0.000259,0.000043,0.04</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="9"/>
+        <v>2.5900000000000033E-4</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="10"/>
+        <v>2.5900000000000033E-4</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="11"/>
+        <v>2.5900000000000033E-4</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="12"/>
+        <v>4.2999999999999975E-5</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="7"/>
+        <v>4.0000000000000015E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C36">
+        <v>75</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="8"/>
+        <v>0.000264,0.000264,0.000264,0.000044,0.041</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="9"/>
+        <v>2.6400000000000035E-4</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="10"/>
+        <v>2.6400000000000035E-4</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="11"/>
+        <v>2.6400000000000035E-4</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="12"/>
+        <v>4.3999999999999972E-5</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="7"/>
+        <v>4.1000000000000016E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C37">
+        <v>76</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="8"/>
+        <v>0.000269,0.000269,0.000269,0.000045,0.042</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="9"/>
+        <v>2.6900000000000036E-4</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="10"/>
+        <v>2.6900000000000036E-4</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="11"/>
+        <v>2.6900000000000036E-4</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="12"/>
+        <v>4.4999999999999969E-5</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="7"/>
+        <v>4.2000000000000016E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C38">
+        <v>77</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="8"/>
+        <v>0.000274,0.000274,0.000274,0.000046,0.043</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="9"/>
+        <v>2.7400000000000037E-4</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="10"/>
+        <v>2.7400000000000037E-4</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="11"/>
+        <v>2.7400000000000037E-4</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="12"/>
+        <v>4.5999999999999966E-5</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="7"/>
+        <v>4.3000000000000017E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C39">
+        <v>78</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="8"/>
+        <v>0.000279,0.000279,0.000279,0.000047,0.044</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="9"/>
+        <v>2.7900000000000038E-4</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="10"/>
+        <v>2.7900000000000038E-4</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="11"/>
+        <v>2.7900000000000038E-4</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="12"/>
+        <v>4.6999999999999963E-5</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="7"/>
+        <v>4.4000000000000018E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C40">
+        <v>79</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="8"/>
+        <v>0.000284,0.000284,0.000284,0.000048,0.045</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="9"/>
+        <v>2.840000000000004E-4</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="10"/>
+        <v>2.840000000000004E-4</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="11"/>
+        <v>2.840000000000004E-4</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="12"/>
+        <v>4.7999999999999961E-5</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="7"/>
+        <v>4.5000000000000019E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C41">
+        <v>80</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="8"/>
+        <v>0.000289,0.000289,0.000289,0.000049,0.046</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="9"/>
+        <v>2.8900000000000041E-4</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="10"/>
+        <v>2.8900000000000041E-4</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="11"/>
+        <v>2.8900000000000041E-4</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="12"/>
+        <v>4.8999999999999958E-5</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="7"/>
+        <v>4.600000000000002E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C42">
+        <v>81</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="8"/>
+        <v>0.000294,0.000294,0.000294,0.00005,0.047</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="9"/>
+        <v>2.9400000000000042E-4</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="10"/>
+        <v>2.9400000000000042E-4</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="11"/>
+        <v>2.9400000000000042E-4</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="12"/>
+        <v>4.9999999999999955E-5</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="7"/>
+        <v>4.7000000000000021E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C43">
+        <v>82</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="8"/>
+        <v>0.000299,0.000299,0.000299,0.000051,0.048</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="9"/>
+        <v>2.9900000000000044E-4</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="10"/>
+        <v>2.9900000000000044E-4</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="11"/>
+        <v>2.9900000000000044E-4</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="12"/>
+        <v>5.0999999999999952E-5</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="7"/>
+        <v>4.8000000000000022E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C44">
+        <v>83</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="8"/>
+        <v>0.000304,0.000304,0.000304,5.19999999999999E-05,0.049</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="9"/>
+        <v>3.0400000000000045E-4</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="10"/>
+        <v>3.0400000000000045E-4</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="11"/>
+        <v>3.0400000000000045E-4</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="12"/>
+        <v>5.1999999999999949E-5</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="7"/>
+        <v>4.9000000000000023E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C45">
+        <v>84</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="8"/>
+        <v>0.000309,0.000309,0.000309,5.29999999999999E-05,0.05</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="9"/>
+        <v>3.0900000000000046E-4</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="10"/>
+        <v>3.0900000000000046E-4</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="11"/>
+        <v>3.0900000000000046E-4</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="12"/>
+        <v>5.2999999999999947E-5</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="7"/>
+        <v>5.0000000000000024E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C46">
+        <v>85</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="8"/>
+        <v>0.000314,0.000314,0.000314,5.39999999999999E-05,0.051</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="9"/>
+        <v>3.1400000000000048E-4</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="10"/>
+        <v>3.1400000000000048E-4</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="11"/>
+        <v>3.1400000000000048E-4</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="12"/>
+        <v>5.3999999999999944E-5</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="7"/>
+        <v>5.1000000000000024E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C47">
+        <v>86</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="8"/>
+        <v>0.000319,0.000319,0.000319,5.49999999999999E-05,0.052</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="9"/>
+        <v>3.1900000000000049E-4</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="10"/>
+        <v>3.1900000000000049E-4</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="11"/>
+        <v>3.1900000000000049E-4</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="12"/>
+        <v>5.4999999999999941E-5</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="7"/>
+        <v>5.2000000000000025E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/GradeTestTable.xlsx
+++ b/Assets/06.Table/GradeTestTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E58003-04B3-4BE2-AB60-C07C3E93D7B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21B5CD4-4A33-41D1-BC98-EE6DD221738C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GradeTestTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="155">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -527,9 +527,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>41,38,40,44,52</t>
-  </si>
-  <si>
     <t>1살</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -543,6 +540,66 @@
   </si>
   <si>
     <t>1000살</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>41,38,40,44,52,56</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1섬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10섬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100섬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000섬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스탯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1찰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10찰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100찰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000찰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000교</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -936,11 +993,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C71" sqref="C71"/>
+      <selection pane="bottomLeft" activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1982,14 +2039,15 @@
       <c r="B61">
         <v>1.0000000000000001E+106</v>
       </c>
-      <c r="C61" t="s">
-        <v>130</v>
+      <c r="C61" t="str">
+        <f>VLOOKUP(A61,abilvalue!C:J,2,FALSE)</f>
+        <v>100승</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>129</v>
       </c>
       <c r="E61" s="1" t="str">
-        <f>VLOOKUP(A61,abilvalue!C:I,2,FALSE)</f>
+        <f>VLOOKUP(A61,abilvalue!C:J,3,FALSE)</f>
         <v>0.000184,0.000184,0.000184,0.000028,0.025</v>
       </c>
     </row>
@@ -2000,14 +2058,16 @@
       <c r="B62">
         <v>9.9999999999999997E+106</v>
       </c>
-      <c r="C62" t="s">
-        <v>131</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>129</v>
+      <c r="C62" t="str">
+        <f>VLOOKUP(A62,abilvalue!C:J,2,FALSE)</f>
+        <v>1000승</v>
+      </c>
+      <c r="D62" s="4" t="str">
+        <f>D61</f>
+        <v>41,38,40,44,52</v>
       </c>
       <c r="E62" s="1" t="str">
-        <f>VLOOKUP(A62,abilvalue!C:I,2,FALSE)</f>
+        <f>VLOOKUP(A62,abilvalue!C:J,3,FALSE)</f>
         <v>0.000189,0.000189,0.000189,0.000029,0.026</v>
       </c>
     </row>
@@ -2019,14 +2079,16 @@
         <f>B62*10</f>
         <v>1E+108</v>
       </c>
-      <c r="C63" t="s">
-        <v>132</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>129</v>
+      <c r="C63" t="str">
+        <f>VLOOKUP(A63,abilvalue!C:J,2,FALSE)</f>
+        <v>1마</v>
+      </c>
+      <c r="D63" s="4" t="str">
+        <f t="shared" ref="D63:D75" si="0">D62</f>
+        <v>41,38,40,44,52</v>
       </c>
       <c r="E63" s="1" t="str">
-        <f>VLOOKUP(A63,abilvalue!C:I,2,FALSE)</f>
+        <f>VLOOKUP(A63,abilvalue!C:J,3,FALSE)</f>
         <v>0.000194,0.000194,0.000194,0.00003,0.027</v>
       </c>
     </row>
@@ -2035,17 +2097,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <f t="shared" ref="B64:B66" si="0">B63*10</f>
+        <f t="shared" ref="B64:B66" si="1">B63*10</f>
         <v>9.9999999999999998E+108</v>
       </c>
-      <c r="C64" t="s">
-        <v>133</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>129</v>
+      <c r="C64" t="str">
+        <f>VLOOKUP(A64,abilvalue!C:J,2,FALSE)</f>
+        <v>10마</v>
+      </c>
+      <c r="D64" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>41,38,40,44,52</v>
       </c>
       <c r="E64" s="1" t="str">
-        <f>VLOOKUP(A64,abilvalue!C:I,2,FALSE)</f>
+        <f>VLOOKUP(A64,abilvalue!C:J,3,FALSE)</f>
         <v>0.000199,0.000199,0.000199,0.000031,0.028</v>
       </c>
     </row>
@@ -2054,17 +2118,19 @@
         <v>63</v>
       </c>
       <c r="B65">
+        <f t="shared" si="1"/>
+        <v>1E+110</v>
+      </c>
+      <c r="C65" t="str">
+        <f>VLOOKUP(A65,abilvalue!C:J,2,FALSE)</f>
+        <v>100마</v>
+      </c>
+      <c r="D65" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>1E+110</v>
-      </c>
-      <c r="C65" t="s">
-        <v>134</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>129</v>
+        <v>41,38,40,44,52</v>
       </c>
       <c r="E65" s="1" t="str">
-        <f>VLOOKUP(A65,abilvalue!C:I,2,FALSE)</f>
+        <f>VLOOKUP(A65,abilvalue!C:J,3,FALSE)</f>
         <v>0.000204,0.000204,0.000204,0.000032,0.029</v>
       </c>
     </row>
@@ -2073,17 +2139,19 @@
         <v>64</v>
       </c>
       <c r="B66">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000001E+111</v>
+      </c>
+      <c r="C66" t="str">
+        <f>VLOOKUP(A66,abilvalue!C:J,2,FALSE)</f>
+        <v>1000마</v>
+      </c>
+      <c r="D66" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>1.0000000000000001E+111</v>
-      </c>
-      <c r="C66" t="s">
-        <v>135</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>129</v>
+        <v>41,38,40,44,52</v>
       </c>
       <c r="E66" s="1" t="str">
-        <f>VLOOKUP(A66,abilvalue!C:I,2,FALSE)</f>
+        <f>VLOOKUP(A66,abilvalue!C:J,3,FALSE)</f>
         <v>0.000209,0.000209,0.000209,0.000033,0.03</v>
       </c>
     </row>
@@ -2092,17 +2160,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:B70" si="1">B66*10</f>
+        <f t="shared" ref="B67:B75" si="2">B66*10</f>
         <v>1.0000000000000001E+112</v>
       </c>
-      <c r="C67" t="s">
-        <v>137</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>136</v>
+      <c r="C67" t="str">
+        <f>VLOOKUP(A67,abilvalue!C:J,2,FALSE)</f>
+        <v>1살</v>
+      </c>
+      <c r="D67" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>41,38,40,44,52</v>
       </c>
       <c r="E67" s="1" t="str">
-        <f>VLOOKUP(A67,abilvalue!C:I,2,FALSE)</f>
+        <f>VLOOKUP(A67,abilvalue!C:J,3,FALSE)</f>
         <v>0.000214,0.000214,0.000214,0.000034,0.031</v>
       </c>
     </row>
@@ -2111,17 +2181,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000000002E+113</v>
       </c>
-      <c r="C68" t="s">
-        <v>138</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>136</v>
+      <c r="C68" t="str">
+        <f>VLOOKUP(A68,abilvalue!C:J,2,FALSE)</f>
+        <v>10살</v>
+      </c>
+      <c r="D68" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>41,38,40,44,52</v>
       </c>
       <c r="E68" s="1" t="str">
-        <f>VLOOKUP(A68,abilvalue!C:I,2,FALSE)</f>
+        <f>VLOOKUP(A68,abilvalue!C:J,3,FALSE)</f>
         <v>0.000219,0.000219,0.000219,0.000035,0.032</v>
       </c>
     </row>
@@ -2130,17 +2202,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000000002E+114</v>
       </c>
-      <c r="C69" t="s">
-        <v>139</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>136</v>
+      <c r="C69" t="str">
+        <f>VLOOKUP(A69,abilvalue!C:J,2,FALSE)</f>
+        <v>100살</v>
+      </c>
+      <c r="D69" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>41,38,40,44,52</v>
       </c>
       <c r="E69" s="1" t="str">
-        <f>VLOOKUP(A69,abilvalue!C:I,2,FALSE)</f>
+        <f>VLOOKUP(A69,abilvalue!C:J,3,FALSE)</f>
         <v>0.000224,0.000224,0.000224,0.000036,0.033</v>
       </c>
     </row>
@@ -2149,18 +2223,124 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000000002E+115</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" t="str">
+        <f>VLOOKUP(A70,abilvalue!C:J,2,FALSE)</f>
+        <v>1000살</v>
+      </c>
+      <c r="D70" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>41,38,40,44,52</v>
+      </c>
+      <c r="E70" s="1" t="str">
+        <f>VLOOKUP(A70,abilvalue!C:J,3,FALSE)</f>
+        <v>0.000229,0.000229,0.000229,0.000037,0.034</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="3">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000002E+116</v>
+      </c>
+      <c r="C71" t="str">
+        <f>VLOOKUP(A71,abilvalue!C:J,2,FALSE)</f>
+        <v>1섬</v>
+      </c>
+      <c r="D71" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D70" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E70" s="1" t="str">
-        <f>VLOOKUP(A70,abilvalue!C:I,2,FALSE)</f>
-        <v>0.000229,0.000229,0.000229,0.000037,0.034</v>
+      <c r="E71" s="1" t="str">
+        <f>VLOOKUP(A71,abilvalue!C:J,3,FALSE)</f>
+        <v>0.000234,0.000234,0.000234,0.000038,0.035,0.005</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="3">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000002E+117</v>
+      </c>
+      <c r="C72" t="str">
+        <f>VLOOKUP(A72,abilvalue!C:J,2,FALSE)</f>
+        <v>10섬</v>
+      </c>
+      <c r="D72" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>41,38,40,44,52,56</v>
+      </c>
+      <c r="E72" s="1" t="str">
+        <f>VLOOKUP(A72,abilvalue!C:J,3,FALSE)</f>
+        <v>0.000239,0.000239,0.000239,0.000039,0.036,0.006</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="3">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000002E+118</v>
+      </c>
+      <c r="C73" t="str">
+        <f>VLOOKUP(A73,abilvalue!C:J,2,FALSE)</f>
+        <v>100섬</v>
+      </c>
+      <c r="D73" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>41,38,40,44,52,56</v>
+      </c>
+      <c r="E73" s="1" t="str">
+        <f>VLOOKUP(A73,abilvalue!C:J,3,FALSE)</f>
+        <v>0.000244,0.000244,0.000244,0.00004,0.037,0.007</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="3">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000001E+119</v>
+      </c>
+      <c r="C74" t="str">
+        <f>VLOOKUP(A74,abilvalue!C:J,2,FALSE)</f>
+        <v>1000섬</v>
+      </c>
+      <c r="D74" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>41,38,40,44,52,56</v>
+      </c>
+      <c r="E74" s="1" t="str">
+        <f>VLOOKUP(A74,abilvalue!C:J,3,FALSE)</f>
+        <v>0.000249,0.000249,0.000249,0.000041,0.038,0.008</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="3">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000001E+120</v>
+      </c>
+      <c r="C75" t="str">
+        <f>VLOOKUP(A75,abilvalue!C:J,2,FALSE)</f>
+        <v>1찰</v>
+      </c>
+      <c r="D75" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>41,38,40,44,52,56</v>
+      </c>
+      <c r="E75" s="1" t="str">
+        <f>VLOOKUP(A75,abilvalue!C:J,3,FALSE)</f>
+        <v>0.000254,0.000254,0.000254,0.000042,0.039,0.009</v>
       </c>
     </row>
   </sheetData>
@@ -2172,48 +2352,57 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BC1071-2B2D-491A-BEE8-0317001AD37D}">
-  <dimension ref="C5:I47"/>
+  <dimension ref="C5:K47"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="9.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.25" customWidth="1"/>
+    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>114</v>
       </c>
-      <c r="E5">
+      <c r="D5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5" t="s">
+        <v>146</v>
+      </c>
+      <c r="F5">
         <v>1</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>2</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>3</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>4</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="K5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C6">
         <v>45</v>
       </c>
-      <c r="D6" t="str">
-        <f>E6&amp;","&amp;F6&amp;","&amp;G6&amp;","&amp;H6</f>
+      <c r="D6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" t="str">
+        <f>F6&amp;","&amp;G6&amp;","&amp;H6&amp;","&amp;I6</f>
         <v>0.000114,0.000114,0.000114,0.000014</v>
-      </c>
-      <c r="E6">
-        <v>1.1400000000000001E-4</v>
       </c>
       <c r="F6">
         <v>1.1400000000000001E-4</v>
@@ -2222,1143 +2411,1322 @@
         <v>1.1400000000000001E-4</v>
       </c>
       <c r="H6">
+        <v>1.1400000000000001E-4</v>
+      </c>
+      <c r="I6">
         <v>1.4E-5</v>
       </c>
     </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C7">
         <v>46</v>
       </c>
-      <c r="D7" t="str">
-        <f t="shared" ref="D7:D19" si="0">E7&amp;","&amp;F7&amp;","&amp;G7&amp;","&amp;H7</f>
+      <c r="D7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" ref="E7:E19" si="0">F7&amp;","&amp;G7&amp;","&amp;H7&amp;","&amp;I7</f>
         <v>0.000119,0.000119,0.000119,0.000015</v>
       </c>
-      <c r="E7">
-        <f>E6+0.000005</f>
+      <c r="F7">
+        <f>F6+0.000005</f>
         <v>1.1900000000000001E-4</v>
       </c>
-      <c r="F7">
-        <f t="shared" ref="F7:G7" si="1">F6+0.000005</f>
+      <c r="G7">
+        <f t="shared" ref="G7:H7" si="1">G6+0.000005</f>
         <v>1.1900000000000001E-4</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <f t="shared" si="1"/>
         <v>1.1900000000000001E-4</v>
       </c>
-      <c r="H7">
-        <f>H6+0.000001</f>
+      <c r="I7">
+        <f>I6+0.000001</f>
         <v>1.5E-5</v>
       </c>
     </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C8">
         <v>47</v>
       </c>
-      <c r="D8" t="str">
+      <c r="D8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" t="str">
         <f t="shared" si="0"/>
         <v>0.000124,0.000124,0.000124,0.000016</v>
       </c>
-      <c r="E8">
-        <f t="shared" ref="E8:E25" si="2">E7+0.000005</f>
+      <c r="F8">
+        <f t="shared" ref="F8:F25" si="2">F7+0.000005</f>
         <v>1.2400000000000001E-4</v>
       </c>
-      <c r="F8">
-        <f t="shared" ref="F8:F25" si="3">F7+0.000005</f>
+      <c r="G8">
+        <f t="shared" ref="G8:G25" si="3">G7+0.000005</f>
         <v>1.2400000000000001E-4</v>
       </c>
-      <c r="G8">
-        <f t="shared" ref="G8:G25" si="4">G7+0.000005</f>
+      <c r="H8">
+        <f t="shared" ref="H8:H25" si="4">H7+0.000005</f>
         <v>1.2400000000000001E-4</v>
       </c>
-      <c r="H8">
-        <f t="shared" ref="H8:H25" si="5">H7+0.000001</f>
+      <c r="I8">
+        <f t="shared" ref="I8:I25" si="5">I7+0.000001</f>
         <v>1.5999999999999999E-5</v>
       </c>
     </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C9">
         <v>48</v>
       </c>
-      <c r="D9" t="str">
+      <c r="D9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" t="str">
         <f t="shared" si="0"/>
         <v>0.000129,0.000129,0.000129,0.000017</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <f t="shared" si="2"/>
         <v>1.2900000000000002E-4</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <f t="shared" si="3"/>
         <v>1.2900000000000002E-4</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <f t="shared" si="4"/>
         <v>1.2900000000000002E-4</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <f t="shared" si="5"/>
         <v>1.7E-5</v>
       </c>
     </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C10">
         <v>49</v>
       </c>
-      <c r="D10" t="str">
+      <c r="D10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" t="str">
         <f t="shared" si="0"/>
         <v>0.000134,0.000134,0.000134,0.000018</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <f t="shared" si="2"/>
         <v>1.3400000000000003E-4</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <f t="shared" si="3"/>
         <v>1.3400000000000003E-4</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <f t="shared" si="4"/>
         <v>1.3400000000000003E-4</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <f t="shared" si="5"/>
         <v>1.8E-5</v>
       </c>
     </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C11">
         <v>50</v>
       </c>
-      <c r="D11" t="str">
+      <c r="D11" t="s">
+        <v>105</v>
+      </c>
+      <c r="E11" t="str">
         <f t="shared" si="0"/>
         <v>0.000139,0.000139,0.000139,0.000019</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <f t="shared" si="2"/>
         <v>1.3900000000000004E-4</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <f t="shared" si="3"/>
         <v>1.3900000000000004E-4</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <f t="shared" si="4"/>
         <v>1.3900000000000004E-4</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <f t="shared" si="5"/>
         <v>1.9000000000000001E-5</v>
       </c>
     </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C12">
         <v>51</v>
       </c>
-      <c r="D12" t="str">
+      <c r="D12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" t="str">
         <f t="shared" si="0"/>
         <v>0.000144,0.000144,0.000144,0.00002</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <f t="shared" si="2"/>
         <v>1.4400000000000006E-4</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <f t="shared" si="3"/>
         <v>1.4400000000000006E-4</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <f t="shared" si="4"/>
         <v>1.4400000000000006E-4</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <f t="shared" si="5"/>
         <v>2.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C13">
         <v>52</v>
       </c>
-      <c r="D13" t="str">
+      <c r="D13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" t="str">
         <f t="shared" si="0"/>
         <v>0.000149,0.000149,0.000149,0.000021</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <f t="shared" si="2"/>
         <v>1.4900000000000007E-4</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <f t="shared" si="3"/>
         <v>1.4900000000000007E-4</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <f t="shared" si="4"/>
         <v>1.4900000000000007E-4</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <f t="shared" si="5"/>
         <v>2.1000000000000002E-5</v>
       </c>
     </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C14">
         <v>53</v>
       </c>
-      <c r="D14" t="str">
+      <c r="D14" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" t="str">
         <f t="shared" si="0"/>
         <v>0.000154,0.000154,0.000154,0.000022</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <f t="shared" si="2"/>
         <v>1.5400000000000008E-4</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <f t="shared" si="3"/>
         <v>1.5400000000000008E-4</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <f t="shared" si="4"/>
         <v>1.5400000000000008E-4</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <f t="shared" si="5"/>
         <v>2.2000000000000003E-5</v>
       </c>
     </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C15">
         <v>54</v>
       </c>
-      <c r="D15" t="str">
+      <c r="D15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" t="str">
         <f t="shared" si="0"/>
         <v>0.000159,0.000159,0.000159,0.000023</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <f t="shared" si="2"/>
         <v>1.590000000000001E-4</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <f t="shared" si="3"/>
         <v>1.590000000000001E-4</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <f t="shared" si="4"/>
         <v>1.590000000000001E-4</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <f t="shared" si="5"/>
         <v>2.3000000000000003E-5</v>
       </c>
     </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C16">
         <v>55</v>
       </c>
-      <c r="D16" t="str">
+      <c r="D16" t="s">
+        <v>110</v>
+      </c>
+      <c r="E16" t="str">
         <f t="shared" si="0"/>
         <v>0.000164,0.000164,0.000164,0.000024</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <f t="shared" si="2"/>
         <v>1.6400000000000011E-4</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <f t="shared" si="3"/>
         <v>1.6400000000000011E-4</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <f t="shared" si="4"/>
         <v>1.6400000000000011E-4</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <f t="shared" si="5"/>
         <v>2.4000000000000004E-5</v>
       </c>
     </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C17">
         <v>56</v>
       </c>
-      <c r="D17" t="str">
+      <c r="D17" t="s">
+        <v>111</v>
+      </c>
+      <c r="E17" t="str">
         <f t="shared" si="0"/>
         <v>0.000169,0.000169,0.000169,0.000025</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <f t="shared" si="2"/>
         <v>1.6900000000000012E-4</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <f t="shared" si="3"/>
         <v>1.6900000000000012E-4</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <f t="shared" si="4"/>
         <v>1.6900000000000012E-4</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <f t="shared" si="5"/>
         <v>2.5000000000000005E-5</v>
       </c>
     </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C18">
         <v>57</v>
       </c>
-      <c r="D18" t="str">
+      <c r="D18" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18" t="str">
         <f t="shared" si="0"/>
         <v>0.000174,0.000174,0.000174,0.000026</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <f t="shared" si="2"/>
         <v>1.7400000000000014E-4</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <f t="shared" si="3"/>
         <v>1.7400000000000014E-4</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <f t="shared" si="4"/>
         <v>1.7400000000000014E-4</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <f t="shared" si="5"/>
         <v>2.6000000000000005E-5</v>
       </c>
     </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C19">
         <v>58</v>
       </c>
-      <c r="D19" t="str">
+      <c r="D19" t="s">
+        <v>113</v>
+      </c>
+      <c r="E19" t="str">
         <f t="shared" si="0"/>
         <v>0.000179,0.000179,0.000179,0.000027</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <f t="shared" si="2"/>
         <v>1.7900000000000015E-4</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <f t="shared" si="3"/>
         <v>1.7900000000000015E-4</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <f t="shared" si="4"/>
         <v>1.7900000000000015E-4</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <f t="shared" si="5"/>
         <v>2.7000000000000006E-5</v>
       </c>
     </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C20">
         <v>59</v>
       </c>
-      <c r="D20" t="str">
-        <f>E20&amp;","&amp;F20&amp;","&amp;G20&amp;","&amp;H20&amp;","&amp;I20</f>
+      <c r="D20" t="s">
+        <v>130</v>
+      </c>
+      <c r="E20" t="str">
+        <f>F20&amp;","&amp;G20&amp;","&amp;H20&amp;","&amp;I20&amp;","&amp;J20</f>
         <v>0.000184,0.000184,0.000184,0.000028,0.025</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <f t="shared" si="2"/>
         <v>1.8400000000000016E-4</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <f t="shared" si="3"/>
         <v>1.8400000000000016E-4</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <f t="shared" si="4"/>
         <v>1.8400000000000016E-4</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <f t="shared" si="5"/>
         <v>2.8000000000000006E-5</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C21">
         <v>60</v>
       </c>
-      <c r="D21" t="str">
-        <f t="shared" ref="D21:D25" si="6">E21&amp;","&amp;F21&amp;","&amp;G21&amp;","&amp;H21&amp;","&amp;I21</f>
+      <c r="D21" t="s">
+        <v>131</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" ref="E21:E25" si="6">F21&amp;","&amp;G21&amp;","&amp;H21&amp;","&amp;I21&amp;","&amp;J21</f>
         <v>0.000189,0.000189,0.000189,0.000029,0.026</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <f t="shared" si="2"/>
         <v>1.8900000000000018E-4</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <f t="shared" si="3"/>
         <v>1.8900000000000018E-4</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <f t="shared" si="4"/>
         <v>1.8900000000000018E-4</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <f t="shared" si="5"/>
         <v>2.9000000000000007E-5</v>
       </c>
-      <c r="I21">
-        <f>I20+0.001</f>
+      <c r="J21">
+        <f>J20+0.001</f>
         <v>2.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C22">
         <v>61</v>
       </c>
-      <c r="D22" t="str">
+      <c r="D22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E22" t="str">
         <f t="shared" si="6"/>
         <v>0.000194,0.000194,0.000194,0.00003,0.027</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <f t="shared" si="2"/>
         <v>1.9400000000000019E-4</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <f t="shared" si="3"/>
         <v>1.9400000000000019E-4</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <f t="shared" si="4"/>
         <v>1.9400000000000019E-4</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <f t="shared" si="5"/>
         <v>3.0000000000000008E-5</v>
       </c>
-      <c r="I22">
-        <f t="shared" ref="I22:I47" si="7">I21+0.001</f>
+      <c r="J22">
+        <f t="shared" ref="J22:K47" si="7">J21+0.001</f>
         <v>2.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C23">
         <v>62</v>
       </c>
-      <c r="D23" t="str">
+      <c r="D23" t="s">
+        <v>133</v>
+      </c>
+      <c r="E23" t="str">
         <f t="shared" si="6"/>
         <v>0.000199,0.000199,0.000199,0.000031,0.028</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <f t="shared" si="2"/>
         <v>1.990000000000002E-4</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <f t="shared" si="3"/>
         <v>1.990000000000002E-4</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <f t="shared" si="4"/>
         <v>1.990000000000002E-4</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <f t="shared" si="5"/>
         <v>3.1000000000000008E-5</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <f t="shared" si="7"/>
         <v>2.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C24">
         <v>63</v>
       </c>
-      <c r="D24" t="str">
+      <c r="D24" t="s">
+        <v>134</v>
+      </c>
+      <c r="E24" t="str">
         <f t="shared" si="6"/>
         <v>0.000204,0.000204,0.000204,0.000032,0.029</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <f t="shared" si="2"/>
         <v>2.0400000000000022E-4</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <f t="shared" si="3"/>
         <v>2.0400000000000022E-4</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <f t="shared" si="4"/>
         <v>2.0400000000000022E-4</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <f t="shared" si="5"/>
         <v>3.2000000000000005E-5</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <f t="shared" si="7"/>
         <v>2.9000000000000005E-2</v>
       </c>
     </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C25">
         <v>64</v>
       </c>
-      <c r="D25" t="str">
+      <c r="D25" t="s">
+        <v>135</v>
+      </c>
+      <c r="E25" t="str">
         <f t="shared" si="6"/>
         <v>0.000209,0.000209,0.000209,0.000033,0.03</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <f t="shared" si="2"/>
         <v>2.0900000000000023E-4</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <f t="shared" si="3"/>
         <v>2.0900000000000023E-4</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <f t="shared" si="4"/>
         <v>2.0900000000000023E-4</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <f t="shared" si="5"/>
         <v>3.3000000000000003E-5</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <f t="shared" si="7"/>
         <v>3.0000000000000006E-2</v>
       </c>
     </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C26">
         <v>65</v>
       </c>
-      <c r="D26" t="str">
-        <f t="shared" ref="D26:D47" si="8">E26&amp;","&amp;F26&amp;","&amp;G26&amp;","&amp;H26&amp;","&amp;I26</f>
+      <c r="D26" t="s">
+        <v>136</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" ref="E26:E29" si="8">F26&amp;","&amp;G26&amp;","&amp;H26&amp;","&amp;I26&amp;","&amp;J26</f>
         <v>0.000214,0.000214,0.000214,0.000034,0.031</v>
       </c>
-      <c r="E26">
-        <f t="shared" ref="E26:E47" si="9">E25+0.000005</f>
+      <c r="F26">
+        <f t="shared" ref="F26:F47" si="9">F25+0.000005</f>
         <v>2.1400000000000024E-4</v>
       </c>
-      <c r="F26">
-        <f t="shared" ref="F26:F47" si="10">F25+0.000005</f>
+      <c r="G26">
+        <f t="shared" ref="G26:G47" si="10">G25+0.000005</f>
         <v>2.1400000000000024E-4</v>
       </c>
-      <c r="G26">
-        <f t="shared" ref="G26:G47" si="11">G25+0.000005</f>
+      <c r="H26">
+        <f t="shared" ref="H26:H47" si="11">H25+0.000005</f>
         <v>2.1400000000000024E-4</v>
       </c>
-      <c r="H26">
-        <f t="shared" ref="H26:H47" si="12">H25+0.000001</f>
+      <c r="I26">
+        <f t="shared" ref="I26:I47" si="12">I25+0.000001</f>
         <v>3.4E-5</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <f t="shared" si="7"/>
         <v>3.1000000000000007E-2</v>
       </c>
     </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C27">
         <v>66</v>
       </c>
-      <c r="D27" t="str">
+      <c r="D27" t="s">
+        <v>137</v>
+      </c>
+      <c r="E27" t="str">
         <f t="shared" si="8"/>
         <v>0.000219,0.000219,0.000219,0.000035,0.032</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <f t="shared" si="9"/>
         <v>2.1900000000000025E-4</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <f t="shared" si="10"/>
         <v>2.1900000000000025E-4</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <f t="shared" si="11"/>
         <v>2.1900000000000025E-4</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <f t="shared" si="12"/>
         <v>3.4999999999999997E-5</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <f t="shared" si="7"/>
         <v>3.2000000000000008E-2</v>
       </c>
     </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C28">
         <v>67</v>
       </c>
-      <c r="D28" t="str">
+      <c r="D28" t="s">
+        <v>138</v>
+      </c>
+      <c r="E28" t="str">
         <f t="shared" si="8"/>
         <v>0.000224,0.000224,0.000224,0.000036,0.033</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <f t="shared" si="9"/>
         <v>2.2400000000000027E-4</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <f t="shared" si="10"/>
         <v>2.2400000000000027E-4</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <f t="shared" si="11"/>
         <v>2.2400000000000027E-4</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <f t="shared" si="12"/>
         <v>3.5999999999999994E-5</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <f t="shared" si="7"/>
         <v>3.3000000000000008E-2</v>
       </c>
     </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C29">
         <v>68</v>
       </c>
-      <c r="D29" t="str">
+      <c r="D29" t="s">
+        <v>139</v>
+      </c>
+      <c r="E29" t="str">
         <f t="shared" si="8"/>
         <v>0.000229,0.000229,0.000229,0.000037,0.034</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <f t="shared" si="9"/>
         <v>2.2900000000000028E-4</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <f t="shared" si="10"/>
         <v>2.2900000000000028E-4</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <f t="shared" si="11"/>
         <v>2.2900000000000028E-4</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <f t="shared" si="12"/>
         <v>3.6999999999999991E-5</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <f t="shared" si="7"/>
         <v>3.4000000000000009E-2</v>
       </c>
     </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C30">
         <v>69</v>
       </c>
-      <c r="D30" t="str">
-        <f t="shared" si="8"/>
-        <v>0.000234,0.000234,0.000234,0.000038,0.035</v>
-      </c>
-      <c r="E30">
+      <c r="D30" t="s">
+        <v>141</v>
+      </c>
+      <c r="E30" t="str">
+        <f>F30&amp;","&amp;G30&amp;","&amp;H30&amp;","&amp;I30&amp;","&amp;J30&amp;","&amp;K30</f>
+        <v>0.000234,0.000234,0.000234,0.000038,0.035,0.005</v>
+      </c>
+      <c r="F30">
         <f t="shared" si="9"/>
         <v>2.3400000000000029E-4</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <f t="shared" si="10"/>
         <v>2.3400000000000029E-4</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <f t="shared" si="11"/>
         <v>2.3400000000000029E-4</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <f t="shared" si="12"/>
         <v>3.7999999999999989E-5</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <f t="shared" si="7"/>
         <v>3.500000000000001E-2</v>
       </c>
-    </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="K30">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C31">
         <v>70</v>
       </c>
-      <c r="D31" t="str">
-        <f t="shared" si="8"/>
-        <v>0.000239,0.000239,0.000239,0.000039,0.036</v>
-      </c>
-      <c r="E31">
+      <c r="D31" t="s">
+        <v>142</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" ref="E31:E47" si="13">F31&amp;","&amp;G31&amp;","&amp;H31&amp;","&amp;I31&amp;","&amp;J31&amp;","&amp;K31</f>
+        <v>0.000239,0.000239,0.000239,0.000039,0.036,0.006</v>
+      </c>
+      <c r="F31">
         <f t="shared" si="9"/>
         <v>2.3900000000000031E-4</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <f t="shared" si="10"/>
         <v>2.3900000000000031E-4</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <f t="shared" si="11"/>
         <v>2.3900000000000031E-4</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <f t="shared" si="12"/>
         <v>3.8999999999999986E-5</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <f t="shared" si="7"/>
         <v>3.6000000000000011E-2</v>
       </c>
-    </row>
-    <row r="32" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="K31">
+        <f>K30+0.001</f>
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C32">
         <v>71</v>
       </c>
-      <c r="D32" t="str">
-        <f t="shared" si="8"/>
-        <v>0.000244,0.000244,0.000244,0.00004,0.037</v>
-      </c>
-      <c r="E32">
+      <c r="D32" t="s">
+        <v>143</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="13"/>
+        <v>0.000244,0.000244,0.000244,0.00004,0.037,0.007</v>
+      </c>
+      <c r="F32">
         <f t="shared" si="9"/>
         <v>2.4400000000000032E-4</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <f t="shared" si="10"/>
         <v>2.4400000000000032E-4</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <f t="shared" si="11"/>
         <v>2.4400000000000032E-4</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <f t="shared" si="12"/>
         <v>3.9999999999999983E-5</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <f t="shared" si="7"/>
         <v>3.7000000000000012E-2</v>
       </c>
-    </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="K32">
+        <f t="shared" si="7"/>
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C33">
         <v>72</v>
       </c>
-      <c r="D33" t="str">
-        <f t="shared" si="8"/>
-        <v>0.000249,0.000249,0.000249,0.000041,0.038</v>
-      </c>
-      <c r="E33">
+      <c r="D33" t="s">
+        <v>144</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="13"/>
+        <v>0.000249,0.000249,0.000249,0.000041,0.038,0.008</v>
+      </c>
+      <c r="F33">
         <f t="shared" si="9"/>
         <v>2.4900000000000031E-4</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <f t="shared" si="10"/>
         <v>2.4900000000000031E-4</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <f t="shared" si="11"/>
         <v>2.4900000000000031E-4</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <f t="shared" si="12"/>
         <v>4.099999999999998E-5</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <f t="shared" si="7"/>
         <v>3.8000000000000013E-2</v>
       </c>
-    </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="K33">
+        <f t="shared" si="7"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C34">
         <v>73</v>
       </c>
-      <c r="D34" t="str">
-        <f t="shared" si="8"/>
-        <v>0.000254,0.000254,0.000254,0.000042,0.039</v>
-      </c>
-      <c r="E34">
+      <c r="D34" t="s">
+        <v>147</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="13"/>
+        <v>0.000254,0.000254,0.000254,0.000042,0.039,0.009</v>
+      </c>
+      <c r="F34">
         <f t="shared" si="9"/>
         <v>2.5400000000000032E-4</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <f t="shared" si="10"/>
         <v>2.5400000000000032E-4</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <f t="shared" si="11"/>
         <v>2.5400000000000032E-4</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <f t="shared" si="12"/>
         <v>4.1999999999999977E-5</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <f t="shared" si="7"/>
         <v>3.9000000000000014E-2</v>
       </c>
-    </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="K34">
+        <f t="shared" si="7"/>
+        <v>9.0000000000000011E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C35">
         <v>74</v>
       </c>
-      <c r="D35" t="str">
-        <f t="shared" si="8"/>
-        <v>0.000259,0.000259,0.000259,0.000043,0.04</v>
-      </c>
-      <c r="E35">
+      <c r="D35" t="s">
+        <v>148</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="13"/>
+        <v>0.000259,0.000259,0.000259,0.000043,0.04,0.01</v>
+      </c>
+      <c r="F35">
         <f t="shared" si="9"/>
         <v>2.5900000000000033E-4</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <f t="shared" si="10"/>
         <v>2.5900000000000033E-4</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <f t="shared" si="11"/>
         <v>2.5900000000000033E-4</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <f t="shared" si="12"/>
         <v>4.2999999999999975E-5</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <f t="shared" si="7"/>
         <v>4.0000000000000015E-2</v>
       </c>
-    </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="K35">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C36">
         <v>75</v>
       </c>
-      <c r="D36" t="str">
-        <f t="shared" si="8"/>
-        <v>0.000264,0.000264,0.000264,0.000044,0.041</v>
-      </c>
-      <c r="E36">
+      <c r="D36" t="s">
+        <v>149</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="13"/>
+        <v>0.000264,0.000264,0.000264,0.000044,0.041,0.011</v>
+      </c>
+      <c r="F36">
         <f t="shared" si="9"/>
         <v>2.6400000000000035E-4</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <f t="shared" si="10"/>
         <v>2.6400000000000035E-4</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <f t="shared" si="11"/>
         <v>2.6400000000000035E-4</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <f t="shared" si="12"/>
         <v>4.3999999999999972E-5</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <f t="shared" si="7"/>
         <v>4.1000000000000016E-2</v>
       </c>
-    </row>
-    <row r="37" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="K36">
+        <f t="shared" si="7"/>
+        <v>1.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C37">
         <v>76</v>
       </c>
-      <c r="D37" t="str">
-        <f t="shared" si="8"/>
-        <v>0.000269,0.000269,0.000269,0.000045,0.042</v>
-      </c>
-      <c r="E37">
+      <c r="D37" t="s">
+        <v>150</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="13"/>
+        <v>0.000269,0.000269,0.000269,0.000045,0.042,0.012</v>
+      </c>
+      <c r="F37">
         <f t="shared" si="9"/>
         <v>2.6900000000000036E-4</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <f t="shared" si="10"/>
         <v>2.6900000000000036E-4</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <f t="shared" si="11"/>
         <v>2.6900000000000036E-4</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <f t="shared" si="12"/>
         <v>4.4999999999999969E-5</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <f t="shared" si="7"/>
         <v>4.2000000000000016E-2</v>
       </c>
-    </row>
-    <row r="38" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="K37">
+        <f t="shared" si="7"/>
+        <v>1.2000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C38">
         <v>77</v>
       </c>
-      <c r="D38" t="str">
-        <f t="shared" si="8"/>
-        <v>0.000274,0.000274,0.000274,0.000046,0.043</v>
-      </c>
-      <c r="E38">
+      <c r="D38" t="s">
+        <v>151</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="13"/>
+        <v>0.000274,0.000274,0.000274,0.000046,0.043,0.013</v>
+      </c>
+      <c r="F38">
         <f t="shared" si="9"/>
         <v>2.7400000000000037E-4</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <f t="shared" si="10"/>
         <v>2.7400000000000037E-4</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <f t="shared" si="11"/>
         <v>2.7400000000000037E-4</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <f t="shared" si="12"/>
         <v>4.5999999999999966E-5</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <f t="shared" si="7"/>
         <v>4.3000000000000017E-2</v>
       </c>
-    </row>
-    <row r="39" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="K38">
+        <f t="shared" si="7"/>
+        <v>1.3000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C39">
         <v>78</v>
       </c>
-      <c r="D39" t="str">
-        <f t="shared" si="8"/>
-        <v>0.000279,0.000279,0.000279,0.000047,0.044</v>
-      </c>
-      <c r="E39">
+      <c r="D39" t="s">
+        <v>152</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="13"/>
+        <v>0.000279,0.000279,0.000279,0.000047,0.044,0.014</v>
+      </c>
+      <c r="F39">
         <f t="shared" si="9"/>
         <v>2.7900000000000038E-4</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <f t="shared" si="10"/>
         <v>2.7900000000000038E-4</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <f t="shared" si="11"/>
         <v>2.7900000000000038E-4</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <f t="shared" si="12"/>
         <v>4.6999999999999963E-5</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <f t="shared" si="7"/>
         <v>4.4000000000000018E-2</v>
       </c>
-    </row>
-    <row r="40" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="K39">
+        <f t="shared" si="7"/>
+        <v>1.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C40">
         <v>79</v>
       </c>
-      <c r="D40" t="str">
-        <f t="shared" si="8"/>
-        <v>0.000284,0.000284,0.000284,0.000048,0.045</v>
-      </c>
-      <c r="E40">
+      <c r="D40" t="s">
+        <v>153</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="13"/>
+        <v>0.000284,0.000284,0.000284,0.000048,0.045,0.015</v>
+      </c>
+      <c r="F40">
         <f t="shared" si="9"/>
         <v>2.840000000000004E-4</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <f t="shared" si="10"/>
         <v>2.840000000000004E-4</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <f t="shared" si="11"/>
         <v>2.840000000000004E-4</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <f t="shared" si="12"/>
         <v>4.7999999999999961E-5</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <f t="shared" si="7"/>
         <v>4.5000000000000019E-2</v>
       </c>
-    </row>
-    <row r="41" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="K40">
+        <f t="shared" si="7"/>
+        <v>1.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C41">
         <v>80</v>
       </c>
-      <c r="D41" t="str">
-        <f t="shared" si="8"/>
-        <v>0.000289,0.000289,0.000289,0.000049,0.046</v>
-      </c>
-      <c r="E41">
+      <c r="D41" t="s">
+        <v>154</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="13"/>
+        <v>0.000289,0.000289,0.000289,0.000049,0.046,0.016</v>
+      </c>
+      <c r="F41">
         <f t="shared" si="9"/>
         <v>2.8900000000000041E-4</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <f t="shared" si="10"/>
         <v>2.8900000000000041E-4</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <f t="shared" si="11"/>
         <v>2.8900000000000041E-4</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <f t="shared" si="12"/>
         <v>4.8999999999999958E-5</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <f t="shared" si="7"/>
         <v>4.600000000000002E-2</v>
       </c>
-    </row>
-    <row r="42" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="K41">
+        <f t="shared" si="7"/>
+        <v>1.6000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C42">
         <v>81</v>
       </c>
-      <c r="D42" t="str">
-        <f t="shared" si="8"/>
-        <v>0.000294,0.000294,0.000294,0.00005,0.047</v>
-      </c>
-      <c r="E42">
+      <c r="E42" t="str">
+        <f t="shared" si="13"/>
+        <v>0.000294,0.000294,0.000294,0.00005,0.047,0.017</v>
+      </c>
+      <c r="F42">
         <f t="shared" si="9"/>
         <v>2.9400000000000042E-4</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <f t="shared" si="10"/>
         <v>2.9400000000000042E-4</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <f t="shared" si="11"/>
         <v>2.9400000000000042E-4</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <f t="shared" si="12"/>
         <v>4.9999999999999955E-5</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <f t="shared" si="7"/>
         <v>4.7000000000000021E-2</v>
       </c>
-    </row>
-    <row r="43" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="K42">
+        <f t="shared" si="7"/>
+        <v>1.7000000000000008E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C43">
         <v>82</v>
       </c>
-      <c r="D43" t="str">
-        <f t="shared" si="8"/>
-        <v>0.000299,0.000299,0.000299,0.000051,0.048</v>
-      </c>
-      <c r="E43">
+      <c r="E43" t="str">
+        <f t="shared" si="13"/>
+        <v>0.000299,0.000299,0.000299,0.000051,0.048,0.018</v>
+      </c>
+      <c r="F43">
         <f t="shared" si="9"/>
         <v>2.9900000000000044E-4</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <f t="shared" si="10"/>
         <v>2.9900000000000044E-4</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <f t="shared" si="11"/>
         <v>2.9900000000000044E-4</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <f t="shared" si="12"/>
         <v>5.0999999999999952E-5</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <f t="shared" si="7"/>
         <v>4.8000000000000022E-2</v>
       </c>
-    </row>
-    <row r="44" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="K43">
+        <f t="shared" si="7"/>
+        <v>1.8000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C44">
         <v>83</v>
       </c>
-      <c r="D44" t="str">
-        <f t="shared" si="8"/>
-        <v>0.000304,0.000304,0.000304,5.19999999999999E-05,0.049</v>
-      </c>
-      <c r="E44">
+      <c r="E44" t="str">
+        <f t="shared" si="13"/>
+        <v>0.000304,0.000304,0.000304,5.19999999999999E-05,0.049,0.019</v>
+      </c>
+      <c r="F44">
         <f t="shared" si="9"/>
         <v>3.0400000000000045E-4</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <f t="shared" si="10"/>
         <v>3.0400000000000045E-4</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <f t="shared" si="11"/>
         <v>3.0400000000000045E-4</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <f t="shared" si="12"/>
         <v>5.1999999999999949E-5</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <f t="shared" si="7"/>
         <v>4.9000000000000023E-2</v>
       </c>
-    </row>
-    <row r="45" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="K44">
+        <f t="shared" si="7"/>
+        <v>1.900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C45">
         <v>84</v>
       </c>
-      <c r="D45" t="str">
-        <f t="shared" si="8"/>
-        <v>0.000309,0.000309,0.000309,5.29999999999999E-05,0.05</v>
-      </c>
-      <c r="E45">
+      <c r="E45" t="str">
+        <f t="shared" si="13"/>
+        <v>0.000309,0.000309,0.000309,5.29999999999999E-05,0.05,0.02</v>
+      </c>
+      <c r="F45">
         <f t="shared" si="9"/>
         <v>3.0900000000000046E-4</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <f t="shared" si="10"/>
         <v>3.0900000000000046E-4</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <f t="shared" si="11"/>
         <v>3.0900000000000046E-4</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <f t="shared" si="12"/>
         <v>5.2999999999999947E-5</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <f t="shared" si="7"/>
         <v>5.0000000000000024E-2</v>
       </c>
-    </row>
-    <row r="46" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="K45">
+        <f t="shared" si="7"/>
+        <v>2.0000000000000011E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C46">
         <v>85</v>
       </c>
-      <c r="D46" t="str">
-        <f t="shared" si="8"/>
-        <v>0.000314,0.000314,0.000314,5.39999999999999E-05,0.051</v>
-      </c>
-      <c r="E46">
+      <c r="E46" t="str">
+        <f t="shared" si="13"/>
+        <v>0.000314,0.000314,0.000314,5.39999999999999E-05,0.051,0.021</v>
+      </c>
+      <c r="F46">
         <f t="shared" si="9"/>
         <v>3.1400000000000048E-4</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <f t="shared" si="10"/>
         <v>3.1400000000000048E-4</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <f t="shared" si="11"/>
         <v>3.1400000000000048E-4</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <f t="shared" si="12"/>
         <v>5.3999999999999944E-5</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <f t="shared" si="7"/>
         <v>5.1000000000000024E-2</v>
       </c>
-    </row>
-    <row r="47" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="K46">
+        <f t="shared" si="7"/>
+        <v>2.1000000000000012E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C47">
         <v>86</v>
       </c>
-      <c r="D47" t="str">
-        <f t="shared" si="8"/>
-        <v>0.000319,0.000319,0.000319,5.49999999999999E-05,0.052</v>
-      </c>
-      <c r="E47">
+      <c r="E47" t="str">
+        <f t="shared" si="13"/>
+        <v>0.000319,0.000319,0.000319,5.49999999999999E-05,0.052,0.022</v>
+      </c>
+      <c r="F47">
         <f t="shared" si="9"/>
         <v>3.1900000000000049E-4</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <f t="shared" si="10"/>
         <v>3.1900000000000049E-4</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <f t="shared" si="11"/>
         <v>3.1900000000000049E-4</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <f t="shared" si="12"/>
         <v>5.4999999999999941E-5</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <f t="shared" si="7"/>
         <v>5.2000000000000025E-2</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="7"/>
+        <v>2.2000000000000013E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/GradeTestTable.xlsx
+++ b/Assets/06.Table/GradeTestTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21B5CD4-4A33-41D1-BC98-EE6DD221738C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7A40CF-5E42-47B2-B04F-C43F74507485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="159">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -600,6 +600,22 @@
   </si>
   <si>
     <t>1000교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000위</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -993,11 +1009,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:F83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D76" sqref="D76"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2084,7 +2100,7 @@
         <v>1마</v>
       </c>
       <c r="D63" s="4" t="str">
-        <f t="shared" ref="D63:D75" si="0">D62</f>
+        <f t="shared" ref="D63:D83" si="0">D62</f>
         <v>41,38,40,44,52</v>
       </c>
       <c r="E63" s="1" t="str">
@@ -2160,7 +2176,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:B75" si="2">B66*10</f>
+        <f t="shared" ref="B67:B83" si="2">B66*10</f>
         <v>1.0000000000000001E+112</v>
       </c>
       <c r="C67" t="str">
@@ -2341,6 +2357,174 @@
       <c r="E75" s="1" t="str">
         <f>VLOOKUP(A75,abilvalue!C:J,3,FALSE)</f>
         <v>0.000254,0.000254,0.000254,0.000042,0.039,0.009</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="3">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000002E+121</v>
+      </c>
+      <c r="C76" t="str">
+        <f>VLOOKUP(A76,abilvalue!C:J,2,FALSE)</f>
+        <v>10찰</v>
+      </c>
+      <c r="D76" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>41,38,40,44,52,56</v>
+      </c>
+      <c r="E76" s="1" t="str">
+        <f>VLOOKUP(A76,abilvalue!C:J,3,FALSE)</f>
+        <v>0.000259,0.000259,0.000259,0.000043,0.04,0.01</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="3">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000002E+122</v>
+      </c>
+      <c r="C77" t="str">
+        <f>VLOOKUP(A77,abilvalue!C:J,2,FALSE)</f>
+        <v>100찰</v>
+      </c>
+      <c r="D77" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>41,38,40,44,52,56</v>
+      </c>
+      <c r="E77" s="1" t="str">
+        <f>VLOOKUP(A77,abilvalue!C:J,3,FALSE)</f>
+        <v>0.000264,0.000264,0.000264,0.000044,0.041,0.011</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="3">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000001E+123</v>
+      </c>
+      <c r="C78" t="str">
+        <f>VLOOKUP(A78,abilvalue!C:J,2,FALSE)</f>
+        <v>1000찰</v>
+      </c>
+      <c r="D78" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>41,38,40,44,52,56</v>
+      </c>
+      <c r="E78" s="1" t="str">
+        <f>VLOOKUP(A78,abilvalue!C:J,3,FALSE)</f>
+        <v>0.000269,0.000269,0.000269,0.000045,0.042,0.012</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="3">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000001E+124</v>
+      </c>
+      <c r="C79" t="str">
+        <f>VLOOKUP(A79,abilvalue!C:J,2,FALSE)</f>
+        <v>1교</v>
+      </c>
+      <c r="D79" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>41,38,40,44,52,56</v>
+      </c>
+      <c r="E79" s="1" t="str">
+        <f>VLOOKUP(A79,abilvalue!C:J,3,FALSE)</f>
+        <v>0.000274,0.000274,0.000274,0.000046,0.043,0.013</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="3">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000001E+125</v>
+      </c>
+      <c r="C80" t="str">
+        <f>VLOOKUP(A80,abilvalue!C:J,2,FALSE)</f>
+        <v>10교</v>
+      </c>
+      <c r="D80" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>41,38,40,44,52,56</v>
+      </c>
+      <c r="E80" s="1" t="str">
+        <f>VLOOKUP(A80,abilvalue!C:J,3,FALSE)</f>
+        <v>0.000279,0.000279,0.000279,0.000047,0.044,0.014</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="3">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000001E+126</v>
+      </c>
+      <c r="C81" t="str">
+        <f>VLOOKUP(A81,abilvalue!C:J,2,FALSE)</f>
+        <v>100교</v>
+      </c>
+      <c r="D81" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>41,38,40,44,52,56</v>
+      </c>
+      <c r="E81" s="1" t="str">
+        <f>VLOOKUP(A81,abilvalue!C:J,3,FALSE)</f>
+        <v>0.000284,0.000284,0.000284,0.000048,0.045,0.015</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="3">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000001E+127</v>
+      </c>
+      <c r="C82" t="str">
+        <f>VLOOKUP(A82,abilvalue!C:J,2,FALSE)</f>
+        <v>1000교</v>
+      </c>
+      <c r="D82" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>41,38,40,44,52,56</v>
+      </c>
+      <c r="E82" s="1" t="str">
+        <f>VLOOKUP(A82,abilvalue!C:J,3,FALSE)</f>
+        <v>0.000289,0.000289,0.000289,0.000049,0.046,0.016</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="3">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000001E+128</v>
+      </c>
+      <c r="C83" t="str">
+        <f>VLOOKUP(A83,abilvalue!C:J,2,FALSE)</f>
+        <v>1위</v>
+      </c>
+      <c r="D83" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>41,38,40,44,52,56</v>
+      </c>
+      <c r="E83" s="1" t="str">
+        <f>VLOOKUP(A83,abilvalue!C:J,3,FALSE)</f>
+        <v>0.000294,0.000294,0.000294,0.00005,0.047,0.017</v>
       </c>
     </row>
   </sheetData>
@@ -2354,8 +2538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BC1071-2B2D-491A-BEE8-0317001AD37D}">
   <dimension ref="C5:K47"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3535,6 +3719,9 @@
       <c r="C42">
         <v>81</v>
       </c>
+      <c r="D42" t="s">
+        <v>155</v>
+      </c>
       <c r="E42" t="str">
         <f t="shared" si="13"/>
         <v>0.000294,0.000294,0.000294,0.00005,0.047,0.017</v>
@@ -3568,6 +3755,9 @@
       <c r="C43">
         <v>82</v>
       </c>
+      <c r="D43" t="s">
+        <v>156</v>
+      </c>
       <c r="E43" t="str">
         <f t="shared" si="13"/>
         <v>0.000299,0.000299,0.000299,0.000051,0.048,0.018</v>
@@ -3601,6 +3791,9 @@
       <c r="C44">
         <v>83</v>
       </c>
+      <c r="D44" t="s">
+        <v>157</v>
+      </c>
       <c r="E44" t="str">
         <f t="shared" si="13"/>
         <v>0.000304,0.000304,0.000304,5.19999999999999E-05,0.049,0.019</v>
@@ -3633,6 +3826,9 @@
     <row r="45" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C45">
         <v>84</v>
+      </c>
+      <c r="D45" t="s">
+        <v>158</v>
       </c>
       <c r="E45" t="str">
         <f t="shared" si="13"/>
